--- a/Assets/06.Table/ChoboTable.xlsx
+++ b/Assets/06.Table/ChoboTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3968FFDA-0E6B-4811-A8C5-16061E0A3837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68A7D91-37F2-4B46-993D-57F7517C0431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChoboTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="163">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -654,11 +654,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
-"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위" ……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>도술(메뉴)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -710,6 +705,49 @@
   <si>
     <t>여러가지 컨텐츠를 클리어해 궁극기술과
 비전서를 획득하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지의 명칭은 아래의 설명과 같습니다.
+대분류는 챕터로 명칭하며, 소분류는 스테이지로 명칭합니다.
+예시로 10-100은 10챕터 100스테이지입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
+"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설" ……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀문석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀문석 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소탕권은 매일 4개씩 획득 가능합니다.
+소탕 시 스테이지 단계에 따라 귀문석을 획득하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀문 개방에서 획득할 수 있는 재화 입니다.
+사흑 귀문을 강화하는데 사용하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀문 개방(메뉴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 단계에 따라 귀문석 보상을 획득하실 수 있습니다.
+매일 소탕권 4개씩을 획득합니다.
+일정 스테이지 달성 시 신규 능력치를 획득하실 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1117,11 +1155,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:GE73"/>
+  <dimension ref="A1:GE77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2259,10 +2297,10 @@
         <v>9032</v>
       </c>
       <c r="D26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F26" t="s">
         <v>42</v>
@@ -2282,10 +2320,10 @@
         <v>9033</v>
       </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F27" t="s">
         <v>42</v>
@@ -2294,18 +2332,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>9037</v>
       </c>
       <c r="D28" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F28" t="s">
         <v>42</v>
@@ -2314,18 +2355,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>9038</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="F29" t="s">
         <v>42</v>
@@ -2342,10 +2386,10 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="F30" t="s">
         <v>42</v>
@@ -2354,21 +2398,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>161</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="F31" t="s">
         <v>42</v>
@@ -2377,7 +2418,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2385,10 +2426,10 @@
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="F32" t="s">
         <v>42</v>
@@ -2397,7 +2438,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2405,10 +2446,10 @@
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="F33" t="s">
         <v>42</v>
@@ -2424,11 +2465,14 @@
       <c r="B34" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="F34" t="s">
         <v>42</v>
@@ -2437,7 +2481,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2445,10 +2489,10 @@
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
         <v>42</v>
@@ -2457,7 +2501,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2465,10 +2509,10 @@
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="F36" t="s">
         <v>42</v>
@@ -2485,10 +2529,10 @@
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F37" t="s">
         <v>42</v>
@@ -2505,10 +2549,10 @@
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F38" t="s">
         <v>42</v>
@@ -2517,7 +2561,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2525,10 +2569,10 @@
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
         <v>42</v>
@@ -2545,10 +2589,10 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="F40" t="s">
         <v>42</v>
@@ -2565,10 +2609,10 @@
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
         <v>42</v>
@@ -2585,10 +2629,10 @@
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="F42" t="s">
         <v>42</v>
@@ -2597,7 +2641,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2605,10 +2649,10 @@
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="F43" t="s">
         <v>42</v>
@@ -2625,10 +2669,10 @@
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F44" t="s">
         <v>42</v>
@@ -2637,7 +2681,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2645,10 +2689,10 @@
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F45" t="s">
         <v>42</v>
@@ -2665,10 +2709,10 @@
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F46" t="s">
         <v>42</v>
@@ -2685,10 +2729,10 @@
         <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F47" t="s">
         <v>42</v>
@@ -2705,10 +2749,10 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F48" t="s">
         <v>42</v>
@@ -2725,10 +2769,10 @@
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F49" t="s">
         <v>42</v>
@@ -2737,7 +2781,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2745,10 +2789,10 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="F50" t="s">
         <v>42</v>
@@ -2765,10 +2809,10 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F51" t="s">
         <v>42</v>
@@ -2785,10 +2829,10 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F52" t="s">
         <v>42</v>
@@ -2797,7 +2841,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2805,10 +2849,10 @@
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="F53" t="s">
         <v>42</v>
@@ -2817,7 +2861,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2825,10 +2869,10 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="F54" t="s">
         <v>42</v>
@@ -2837,7 +2881,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2845,10 +2889,10 @@
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F55" t="s">
         <v>42</v>
@@ -2865,13 +2909,19 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="F56" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2879,10 +2929,10 @@
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="F57" t="s">
         <v>42</v>
@@ -2891,7 +2941,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2899,10 +2949,10 @@
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="F58" t="s">
         <v>42</v>
@@ -2911,7 +2961,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2919,16 +2969,10 @@
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F59" t="s">
-        <v>42</v>
-      </c>
-      <c r="G59" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -2939,10 +2983,10 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="F60" t="s">
         <v>42</v>
@@ -2959,10 +3003,10 @@
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="F61" t="s">
         <v>42</v>
@@ -2971,7 +3015,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2979,10 +3023,10 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F62" t="s">
         <v>42</v>
@@ -2991,7 +3035,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2999,10 +3043,10 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="F63" t="s">
         <v>42</v>
@@ -3011,7 +3055,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3019,10 +3063,10 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="F64" t="s">
         <v>42</v>
@@ -3039,10 +3083,10 @@
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="F65" t="s">
         <v>42</v>
@@ -3051,7 +3095,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3059,10 +3103,10 @@
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F66" t="s">
         <v>42</v>
@@ -3071,7 +3115,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3079,10 +3123,10 @@
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="F67" t="s">
         <v>42</v>
@@ -3099,10 +3143,10 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="F68" t="s">
         <v>42</v>
@@ -3119,10 +3163,10 @@
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="F69" t="s">
         <v>42</v>
@@ -3131,7 +3175,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3139,10 +3183,10 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F70" t="s">
         <v>42</v>
@@ -3151,7 +3195,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3159,10 +3203,10 @@
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F71" t="s">
         <v>42</v>
@@ -3171,7 +3215,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3179,10 +3223,10 @@
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="F72" t="s">
         <v>42</v>
@@ -3196,18 +3240,98 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" t="s">
+        <v>81</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F73" t="s">
+        <v>42</v>
+      </c>
+      <c r="G73" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>106</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F74" t="s">
+        <v>42</v>
+      </c>
+      <c r="G74" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" t="s">
+        <v>117</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F75" t="s">
+        <v>42</v>
+      </c>
+      <c r="G75" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D76" t="s">
         <v>87</v>
       </c>
-      <c r="E73" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F73" t="s">
-        <v>42</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="E76" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F76" t="s">
+        <v>42</v>
+      </c>
+      <c r="G76" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D77" t="s">
+        <v>154</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F77" t="s">
+        <v>42</v>
+      </c>
+      <c r="G77" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Assets/06.Table/ChoboTable.xlsx
+++ b/Assets/06.Table/ChoboTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68A7D91-37F2-4B46-993D-57F7517C0431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2332EAC0-08A6-491D-A850-1E450A3A1675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChoboTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="175">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -718,11 +718,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
-"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설" ……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>귀문석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -748,6 +743,68 @@
     <t>스테이지 단계에 따라 귀문석 보상을 획득하실 수 있습니다.
 매일 소탕권 4개씩을 획득합니다.
 일정 스테이지 달성 시 신규 능력치를 획득하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초월석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초월석 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 초월에 획득할 수 있는 재화 입니다.
+가방 - 초월 버튼 클릭 시 자세한 초월 정보를 보실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소탕권은 매주 3개씩 획득 가능합니다.
+소탕 시 스테이지 단계에 따라 초월석을 획득하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초월동굴(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단계에 따라 더 많은 초월석을 획득하실 수 있습니다.
+장비를 초월시켜 초월 피해를 얻으실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
+"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설", "적" ……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심득 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내면세계 입장권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내면 세계에서 획득할 수 있는 재화입니다.
+명상의 시간 단축에 사용하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소탕권은 매일 2개씩 획득 가능합니다.
+소탕 시 내면 세계 단계에 따라 심득 조각을 획득하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명상(수련)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명상 시작 시, 24시간의 시간이 소요됩니다.
+명상이 끝났을때 명상 단계가 상승하며 단계에 해당하는
+특정 능력치를 획득하실 수 있습니다.
+심득 조각을 사용하여 명상의 시간을 단축시킬 수 있습니다! 
+매일 내면 세계 입장권 2개씩을 획득합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1155,11 +1212,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:GE77"/>
+  <dimension ref="A1:GE83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2343,10 +2400,10 @@
         <v>9037</v>
       </c>
       <c r="D28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F28" t="s">
         <v>42</v>
@@ -2366,11 +2423,11 @@
         <v>9038</v>
       </c>
       <c r="D29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="F29" t="s">
         <v>42</v>
       </c>
@@ -2378,18 +2435,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>9040</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="F30" t="s">
         <v>42</v>
@@ -2398,18 +2458,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>9041</v>
       </c>
       <c r="D31" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F31" t="s">
         <v>42</v>
@@ -2418,18 +2481,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>9043</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="F32" t="s">
         <v>42</v>
@@ -2438,18 +2504,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>9044</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="F33" t="s">
         <v>42</v>
@@ -2458,21 +2527,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
       <c r="D34" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="F34" t="s">
         <v>42</v>
@@ -2481,7 +2547,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2489,10 +2555,10 @@
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="F35" t="s">
         <v>42</v>
@@ -2501,7 +2567,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2509,10 +2575,10 @@
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="F36" t="s">
         <v>42</v>
@@ -2521,7 +2587,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2529,10 +2595,10 @@
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="F37" t="s">
         <v>42</v>
@@ -2541,7 +2607,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2549,10 +2615,10 @@
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="F38" t="s">
         <v>42</v>
@@ -2561,18 +2627,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C39" s="2">
+        <v>0</v>
+      </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="F39" t="s">
         <v>42</v>
@@ -2589,10 +2658,10 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
         <v>42</v>
@@ -2601,7 +2670,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2609,10 +2678,10 @@
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="F41" t="s">
         <v>42</v>
@@ -2629,10 +2698,10 @@
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="F42" t="s">
         <v>42</v>
@@ -2641,7 +2710,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2649,10 +2718,10 @@
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="F43" t="s">
         <v>42</v>
@@ -2669,10 +2738,10 @@
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
         <v>42</v>
@@ -2689,10 +2758,10 @@
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="F45" t="s">
         <v>42</v>
@@ -2709,10 +2778,10 @@
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
         <v>42</v>
@@ -2721,7 +2790,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2729,10 +2798,10 @@
         <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="F47" t="s">
         <v>42</v>
@@ -2741,7 +2810,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2749,10 +2818,10 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="F48" t="s">
         <v>42</v>
@@ -2769,10 +2838,10 @@
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F49" t="s">
         <v>42</v>
@@ -2781,7 +2850,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2789,10 +2858,10 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F50" t="s">
         <v>42</v>
@@ -2809,10 +2878,10 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F51" t="s">
         <v>42</v>
@@ -2829,10 +2898,10 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F52" t="s">
         <v>42</v>
@@ -2841,7 +2910,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2849,10 +2918,10 @@
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="F53" t="s">
         <v>42</v>
@@ -2869,10 +2938,10 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F54" t="s">
         <v>42</v>
@@ -2889,10 +2958,10 @@
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F55" t="s">
         <v>42</v>
@@ -2909,10 +2978,10 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F56" t="s">
         <v>42</v>
@@ -2921,7 +2990,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2929,10 +2998,10 @@
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="F57" t="s">
         <v>42</v>
@@ -2949,10 +3018,10 @@
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="F58" t="s">
         <v>42</v>
@@ -2969,10 +3038,16 @@
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>98</v>
+        <v>61</v>
+      </c>
+      <c r="F59" t="s">
+        <v>42</v>
+      </c>
+      <c r="G59" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -2983,10 +3058,10 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F60" t="s">
         <v>42</v>
@@ -3003,10 +3078,10 @@
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="F61" t="s">
         <v>42</v>
@@ -3023,10 +3098,10 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F62" t="s">
         <v>42</v>
@@ -3035,7 +3110,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3043,10 +3118,10 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F63" t="s">
         <v>42</v>
@@ -3055,7 +3130,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3063,10 +3138,10 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="F64" t="s">
         <v>42</v>
@@ -3083,19 +3158,13 @@
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F65" t="s">
-        <v>42</v>
-      </c>
-      <c r="G65" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3103,10 +3172,10 @@
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="F66" t="s">
         <v>42</v>
@@ -3115,7 +3184,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3123,10 +3192,10 @@
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="F67" t="s">
         <v>42</v>
@@ -3135,7 +3204,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3143,10 +3212,10 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="F68" t="s">
         <v>42</v>
@@ -3163,10 +3232,10 @@
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="F69" t="s">
         <v>42</v>
@@ -3183,10 +3252,10 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="F70" t="s">
         <v>42</v>
@@ -3203,10 +3272,10 @@
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F71" t="s">
         <v>42</v>
@@ -3215,7 +3284,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3223,10 +3292,10 @@
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="F72" t="s">
         <v>42</v>
@@ -3235,7 +3304,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3243,10 +3312,10 @@
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="F73" t="s">
         <v>42</v>
@@ -3255,7 +3324,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3263,10 +3332,10 @@
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="F74" t="s">
         <v>42</v>
@@ -3275,7 +3344,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3283,10 +3352,10 @@
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="F75" t="s">
         <v>42</v>
@@ -3295,18 +3364,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="F76" t="s">
         <v>42</v>
@@ -3315,23 +3384,143 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>102</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F77" t="s">
+        <v>42</v>
+      </c>
+      <c r="G77" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" t="s">
+        <v>104</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F78" t="s">
+        <v>42</v>
+      </c>
+      <c r="G78" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" t="s">
+        <v>81</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F79" t="s">
+        <v>42</v>
+      </c>
+      <c r="G79" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" t="s">
+        <v>106</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F80" t="s">
+        <v>42</v>
+      </c>
+      <c r="G80" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" t="s">
+        <v>117</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F81" t="s">
+        <v>42</v>
+      </c>
+      <c r="G81" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D82" t="s">
+        <v>87</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F82" t="s">
+        <v>42</v>
+      </c>
+      <c r="G82" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83" t="s">
         <v>154</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E83" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F77" t="s">
-        <v>42</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="F83" t="s">
+        <v>42</v>
+      </c>
+      <c r="G83" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Assets/06.Table/ChoboTable.xlsx
+++ b/Assets/06.Table/ChoboTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2332EAC0-08A6-491D-A850-1E450A3A1675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBE9130-C12D-4B70-A6EE-9677DF50B934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChoboTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="181">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -770,11 +770,6 @@
   <si>
     <t>단계에 따라 더 많은 초월석을 획득하실 수 있습니다.
 장비를 초월시켜 초월 피해를 얻으실 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
-"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설", "적" ……</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -805,6 +800,37 @@
 특정 능력치를 획득하실 수 있습니다.
 심득 조각을 사용하여 명상의 시간을 단축시킬 수 있습니다! 
 매일 내면 세계 입장권 2개씩을 획득합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
+"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설", "적", "고" ……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단전강화(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수인전(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러가지 컨텐츠를 클리어해 다양한 보상을 획득하실 수 있습니다.
+비전서, 특별 수호동물, 궁극 기술등을 획득하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단계에 따라 획득한 혈자리의 증폭 효과를 얻으실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대산의 정수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대산의 정수는 십만대산 콘텐츠에서 획득 가능합니다.
+획득한 재화는 교환소에서 각종 재화로 교환 가능합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1212,11 +1238,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:GE83"/>
+  <dimension ref="A1:GE86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2492,10 +2518,10 @@
         <v>9043</v>
       </c>
       <c r="D32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F32" t="s">
         <v>42</v>
@@ -2515,10 +2541,10 @@
         <v>9044</v>
       </c>
       <c r="D33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F33" t="s">
         <v>42</v>
@@ -2527,18 +2553,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>9045</v>
       </c>
       <c r="D34" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="F34" t="s">
         <v>42</v>
@@ -2555,10 +2584,10 @@
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F35" t="s">
         <v>42</v>
@@ -2575,10 +2604,10 @@
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="F36" t="s">
         <v>42</v>
@@ -2595,10 +2624,10 @@
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="F37" t="s">
         <v>42</v>
@@ -2607,7 +2636,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2615,10 +2644,10 @@
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="F38" t="s">
         <v>42</v>
@@ -2627,21 +2656,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="2">
-        <v>0</v>
-      </c>
       <c r="D39" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="F39" t="s">
         <v>42</v>
@@ -2657,11 +2683,14 @@
       <c r="B40" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C40" s="2">
+        <v>0</v>
+      </c>
       <c r="D40" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="F40" t="s">
         <v>42</v>
@@ -2678,10 +2707,10 @@
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
         <v>42</v>
@@ -2698,10 +2727,10 @@
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="F42" t="s">
         <v>42</v>
@@ -2710,7 +2739,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2718,10 +2747,10 @@
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="F43" t="s">
         <v>42</v>
@@ -2738,10 +2767,10 @@
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F44" t="s">
         <v>42</v>
@@ -2750,7 +2779,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2758,10 +2787,10 @@
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
         <v>42</v>
@@ -2770,7 +2799,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2778,10 +2807,10 @@
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="F46" t="s">
         <v>42</v>
@@ -2790,7 +2819,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2798,10 +2827,10 @@
         <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
         <v>42</v>
@@ -2818,10 +2847,10 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F48" t="s">
         <v>42</v>
@@ -2830,7 +2859,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2838,10 +2867,10 @@
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="F49" t="s">
         <v>42</v>
@@ -2850,7 +2879,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2858,10 +2887,10 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F50" t="s">
         <v>42</v>
@@ -2870,7 +2899,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2878,10 +2907,10 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F51" t="s">
         <v>42</v>
@@ -2898,10 +2927,10 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F52" t="s">
         <v>42</v>
@@ -2918,10 +2947,10 @@
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F53" t="s">
         <v>42</v>
@@ -2938,10 +2967,10 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F54" t="s">
         <v>42</v>
@@ -2958,10 +2987,10 @@
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F55" t="s">
         <v>42</v>
@@ -2978,10 +3007,10 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F56" t="s">
         <v>42</v>
@@ -2998,10 +3027,10 @@
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F57" t="s">
         <v>42</v>
@@ -3010,7 +3039,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3018,10 +3047,10 @@
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="F58" t="s">
         <v>42</v>
@@ -3030,7 +3059,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3038,10 +3067,10 @@
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="F59" t="s">
         <v>42</v>
@@ -3058,10 +3087,10 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F60" t="s">
         <v>42</v>
@@ -3078,10 +3107,10 @@
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F61" t="s">
         <v>42</v>
@@ -3090,7 +3119,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3098,10 +3127,10 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="F62" t="s">
         <v>42</v>
@@ -3110,7 +3139,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3118,10 +3147,10 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="F63" t="s">
         <v>42</v>
@@ -3138,10 +3167,10 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
         <v>42</v>
@@ -3150,7 +3179,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3158,10 +3187,16 @@
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>98</v>
+        <v>167</v>
+      </c>
+      <c r="F65" t="s">
+        <v>42</v>
+      </c>
+      <c r="G65" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -3172,16 +3207,10 @@
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F66" t="s">
-        <v>42</v>
-      </c>
-      <c r="G66" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -3192,10 +3221,10 @@
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="F67" t="s">
         <v>42</v>
@@ -3204,7 +3233,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3212,10 +3241,10 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="F68" t="s">
         <v>42</v>
@@ -3224,7 +3253,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3232,10 +3261,10 @@
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F69" t="s">
         <v>42</v>
@@ -3252,10 +3281,10 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>99</v>
+        <v>175</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="F70" t="s">
         <v>42</v>
@@ -3272,10 +3301,10 @@
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F71" t="s">
         <v>42</v>
@@ -3284,7 +3313,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3292,10 +3321,10 @@
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="F72" t="s">
         <v>42</v>
@@ -3304,7 +3333,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3312,10 +3341,10 @@
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="F73" t="s">
         <v>42</v>
@@ -3324,7 +3353,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3332,10 +3361,10 @@
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F74" t="s">
         <v>42</v>
@@ -3344,7 +3373,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3352,10 +3381,10 @@
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F75" t="s">
         <v>42</v>
@@ -3364,7 +3393,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3372,16 +3401,10 @@
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F76" t="s">
-        <v>42</v>
-      </c>
-      <c r="G76" t="s">
-        <v>42</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -3392,10 +3415,10 @@
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="F77" t="s">
         <v>42</v>
@@ -3412,10 +3435,10 @@
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="F78" t="s">
         <v>42</v>
@@ -3424,7 +3447,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3432,10 +3455,10 @@
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F79" t="s">
         <v>42</v>
@@ -3444,7 +3467,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3452,10 +3475,10 @@
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F80" t="s">
         <v>42</v>
@@ -3464,7 +3487,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3472,10 +3495,10 @@
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="F81" t="s">
         <v>42</v>
@@ -3484,18 +3507,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>168</v>
+        <v>58</v>
       </c>
       <c r="F82" t="s">
         <v>42</v>
@@ -3504,23 +3527,83 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" t="s">
+        <v>106</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F83" t="s">
+        <v>42</v>
+      </c>
+      <c r="G83" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" t="s">
+        <v>117</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F84" t="s">
+        <v>42</v>
+      </c>
+      <c r="G84" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D85" t="s">
+        <v>87</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F85" t="s">
+        <v>42</v>
+      </c>
+      <c r="G85" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D86" t="s">
         <v>154</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E86" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F83" t="s">
-        <v>42</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="F86" t="s">
+        <v>42</v>
+      </c>
+      <c r="G86" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Assets/06.Table/ChoboTable.xlsx
+++ b/Assets/06.Table/ChoboTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBE9130-C12D-4B70-A6EE-9677DF50B934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E320529-796D-45CB-8CAF-EB25823AD828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChoboTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="183">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -803,11 +803,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
-"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설", "적", "고" ……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>단전강화(요괴사냥)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -831,6 +826,20 @@
   <si>
     <t>대산의 정수는 십만대산 콘텐츠에서 획득 가능합니다.
 획득한 재화는 교환소에서 각종 재화로 교환 가능합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
+"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설", "적", "고", "화"……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명예의 증표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명예의 증표는 문파 랭킹에 따른 보상으로 획득 가능합니다.
+획득한 재화는 명예 상점에서 각종 재화로 교환 가능합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1238,11 +1247,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:GE86"/>
+  <dimension ref="A1:GE87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2564,11 +2573,11 @@
         <v>9045</v>
       </c>
       <c r="D34" t="s">
+        <v>178</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="F34" t="s">
         <v>42</v>
       </c>
@@ -2576,18 +2585,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>9046</v>
       </c>
       <c r="D35" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="F35" t="s">
         <v>42</v>
@@ -2604,10 +2616,10 @@
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F36" t="s">
         <v>42</v>
@@ -2624,10 +2636,10 @@
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="F37" t="s">
         <v>42</v>
@@ -2644,10 +2656,10 @@
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="F38" t="s">
         <v>42</v>
@@ -2656,7 +2668,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2664,10 +2676,10 @@
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="F39" t="s">
         <v>42</v>
@@ -2676,21 +2688,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="2">
-        <v>0</v>
-      </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="F40" t="s">
         <v>42</v>
@@ -2706,11 +2715,14 @@
       <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C41" s="2">
+        <v>0</v>
+      </c>
       <c r="D41" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="F41" t="s">
         <v>42</v>
@@ -2727,10 +2739,10 @@
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
         <v>42</v>
@@ -2747,30 +2759,30 @@
         <v>7</v>
       </c>
       <c r="D43" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
         <v>64</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="F43" t="s">
-        <v>42</v>
-      </c>
-      <c r="G43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" t="s">
-        <v>96</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="F44" t="s">
         <v>42</v>
@@ -2787,10 +2799,10 @@
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F45" t="s">
         <v>42</v>
@@ -2799,7 +2811,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2807,10 +2819,10 @@
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
         <v>42</v>
@@ -2819,7 +2831,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2827,10 +2839,10 @@
         <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="F47" t="s">
         <v>42</v>
@@ -2839,7 +2851,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2847,10 +2859,10 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
         <v>42</v>
@@ -2867,10 +2879,10 @@
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F49" t="s">
         <v>42</v>
@@ -2879,7 +2891,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2887,10 +2899,10 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="F50" t="s">
         <v>42</v>
@@ -2899,7 +2911,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2907,10 +2919,10 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F51" t="s">
         <v>42</v>
@@ -2919,7 +2931,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2927,10 +2939,10 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F52" t="s">
         <v>42</v>
@@ -2947,10 +2959,10 @@
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F53" t="s">
         <v>42</v>
@@ -2967,10 +2979,10 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F54" t="s">
         <v>42</v>
@@ -2987,10 +2999,10 @@
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F55" t="s">
         <v>42</v>
@@ -3007,10 +3019,10 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F56" t="s">
         <v>42</v>
@@ -3027,10 +3039,10 @@
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F57" t="s">
         <v>42</v>
@@ -3047,10 +3059,10 @@
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F58" t="s">
         <v>42</v>
@@ -3059,7 +3071,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3067,10 +3079,10 @@
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="F59" t="s">
         <v>42</v>
@@ -3079,7 +3091,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3087,10 +3099,10 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="F60" t="s">
         <v>42</v>
@@ -3107,10 +3119,10 @@
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F61" t="s">
         <v>42</v>
@@ -3127,10 +3139,10 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F62" t="s">
         <v>42</v>
@@ -3139,7 +3151,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3147,10 +3159,10 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="F63" t="s">
         <v>42</v>
@@ -3159,7 +3171,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3167,10 +3179,10 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="F64" t="s">
         <v>42</v>
@@ -3187,10 +3199,10 @@
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
         <v>42</v>
@@ -3199,7 +3211,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3207,10 +3219,16 @@
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>98</v>
+        <v>167</v>
+      </c>
+      <c r="F66" t="s">
+        <v>42</v>
+      </c>
+      <c r="G66" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -3221,16 +3239,10 @@
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F67" t="s">
-        <v>42</v>
-      </c>
-      <c r="G67" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -3241,10 +3253,10 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="F68" t="s">
         <v>42</v>
@@ -3253,7 +3265,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3261,10 +3273,10 @@
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="F69" t="s">
         <v>42</v>
@@ -3273,7 +3285,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3281,10 +3293,10 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="F70" t="s">
         <v>42</v>
@@ -3301,10 +3313,10 @@
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="F71" t="s">
         <v>42</v>
@@ -3321,10 +3333,10 @@
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="F72" t="s">
         <v>42</v>
@@ -3341,10 +3353,10 @@
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F73" t="s">
         <v>42</v>
@@ -3353,7 +3365,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3361,10 +3373,10 @@
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="F74" t="s">
         <v>42</v>
@@ -3381,10 +3393,10 @@
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F75" t="s">
         <v>42</v>
@@ -3401,13 +3413,19 @@
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+      <c r="F76" t="s">
+        <v>42</v>
+      </c>
+      <c r="G76" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3415,16 +3433,10 @@
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F77" t="s">
-        <v>42</v>
-      </c>
-      <c r="G77" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -3435,10 +3447,10 @@
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F78" t="s">
         <v>42</v>
@@ -3455,10 +3467,10 @@
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="F79" t="s">
         <v>42</v>
@@ -3475,10 +3487,10 @@
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="F80" t="s">
         <v>42</v>
@@ -3495,10 +3507,10 @@
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F81" t="s">
         <v>42</v>
@@ -3507,7 +3519,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3515,10 +3527,10 @@
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="F82" t="s">
         <v>42</v>
@@ -3527,7 +3539,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3535,10 +3547,10 @@
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="F83" t="s">
         <v>42</v>
@@ -3555,10 +3567,10 @@
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F84" t="s">
         <v>42</v>
@@ -3572,13 +3584,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="F85" t="s">
         <v>42</v>
@@ -3587,7 +3599,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3595,15 +3607,35 @@
         <v>86</v>
       </c>
       <c r="D86" t="s">
+        <v>87</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F86" t="s">
+        <v>42</v>
+      </c>
+      <c r="G86" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D87" t="s">
         <v>154</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E87" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F86" t="s">
-        <v>42</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="F87" t="s">
+        <v>42</v>
+      </c>
+      <c r="G87" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Assets/06.Table/ChoboTable.xlsx
+++ b/Assets/06.Table/ChoboTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E320529-796D-45CB-8CAF-EB25823AD828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A92E933-7215-42A7-8E0D-83914CC28FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChoboTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="187">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,87 +300,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>요괴도장(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고양이요괴전(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비전(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영혼의숲(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12요괴전(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백귀야행(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구미호전(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부처님전(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>악귀퇴치/악의씨앗(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신요괴전(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요괴탈/귀신나무(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수호신(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요괴지옥(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>십만대산(요괴사냥)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>천상계(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사냥꾼시험(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비나라(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사신수별자리(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수미산(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>붉은구미호전(문파)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반딧불전(요괴사냥)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -418,10 +342,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수호동물전(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수호동물전에서 획득할 수 있는 재화 입니다.
 수호 동물을 레벨업 시켜 수호베기 효과를 증가시킬 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -447,19 +367,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>도깨비 대장간(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사흉수(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>여러가지 컨텐츠를 클리어해 흉수베기 효과를 얻으실 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도적단(요괴사냥)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -474,10 +382,6 @@
   </si>
   <si>
     <t>검의 영혼(가방)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검의 산(가방)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -504,10 +408,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사룡전(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>여러가지 컨텐츠를 클리어해 궁극 기술을 획득할 수 있습니다.
 궁극 기술은 보스당 1회만 사용 가능하며 자동으로 슬롯에 착용됩니다.
 상위 궁극 스킬 습득 시 자동으로 교체되며 슬롯에 착용됩니다.</t>
@@ -522,15 +422,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>왕의 시련(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>여러가지 컨텐츠를 클리어해 심연베기 효과를 얻으실 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>심연(요괴사냥)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -560,18 +452,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>여우굴(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여우전(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요도 해방(메뉴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>요도 해방을 통해 요도를 획득하실 수 있습니다.
 요도는 강화 공격 피해량을 올려줍니다.
 더 높은 등급의 요도를 획득해 보세요.</t>
@@ -604,18 +484,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>태극도장(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신의 시련(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신선계(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>여러가지 컨텐츠를 클리어해 신선베기 효과를 얻으실 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -640,10 +508,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>산군전(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>여러가지 컨텐츠를 클리어해 궁극 기술 비전서와
 수호동물을 얻으실 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -651,10 +515,6 @@
   <si>
     <t>도깨비전을 플레이하고 경험치를 획득할 수 있습니다.
 도깨비전 소탕 시, 도깨비 처치수와 현재 스테이지에 따라 경험치를 획득합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도술(메뉴)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -690,14 +550,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비전 전수(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천구전(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>여러가지 컨텐츠를 클리어해 천구 구술과
 수호동물을 얻으실 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -736,10 +588,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>귀문 개방(메뉴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스테이지 단계에 따라 귀문석 보상을 획득하실 수 있습니다.
 매일 소탕권 4개씩을 획득합니다.
 일정 스테이지 달성 시 신규 능력치를 획득하실 수 있습니다.</t>
@@ -764,10 +612,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>초월동굴(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>단계에 따라 더 많은 초월석을 획득하실 수 있습니다.
 장비를 초월시켜 초월 피해를 얻으실 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -788,10 +632,6 @@
   <si>
     <t>소탕권은 매일 2개씩 획득 가능합니다.
 소탕 시 내면 세계 단계에 따라 심득 조각을 획득하실 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>명상(수련)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -803,14 +643,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>단전강화(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수인전(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>여러가지 컨텐츠를 클리어해 다양한 보상을 획득하실 수 있습니다.
 비전서, 특별 수호동물, 궁극 기술등을 획득하실 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -829,17 +661,205 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
-"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설", "적", "고", "화"……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>명예의 증표</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>명예의 증표는 문파 랭킹에 따른 보상으로 획득 가능합니다.
 획득한 재화는 명예 상점에서 각종 재화로 교환 가능합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
+"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설", "적", "고", "화", "명"……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술(메뉴-특수성장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀문 개방(메뉴-특수성장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반딧불전(요괴사냥-한계돌파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요도 해방(메뉴-특수성장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명상(수련-명상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환수파견(메뉴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환수를 파견하여 단계에 따라 보상을 획득할 수 있습니다.
+보유한 모든 환수의 점수에 따라 단계가 결정됩니다.
+환수를 획득하여 단계를 올려보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검의 산(가방 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴도장(요괴사냥-한계돌파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이요괴전(요괴사냥-보스도전)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비전(요괴사냥-한계돌파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 대장간(요괴사냥-한계돌파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영혼의숲(요괴사냥-한계돌파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태극도장(요괴사냥-한계돌파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백귀야행(요괴사냥-한계돌파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부처님전(요괴사냥-한계돌파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악귀퇴치/악의씨앗(요괴사냥-한계돌파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴탈/귀신나무(요괴사냥-한계돌파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕의 시련(요괴사냥-한계돌파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비전 전수(요괴사냥-한계돌파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼시험(요괴사냥-한계돌파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호동물전(요괴사냥-한계돌파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우굴(요괴사냥-한계돌파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초월동굴(요괴사냥-한계돌파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 시련(요괴사냥-한계돌파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단전강화(요괴사냥-한계돌파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12요괴전(요괴사냥-보스도전)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구미호전(요괴사냥-보스도전)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신요괴전(요괴사냥-보스도전)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호신(요괴사냥-보스도전)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신수별자리(요괴사냥-보스도전)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사흉수(요괴사냥-보스도전)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사룡전(요괴사냥-보스도전)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우전(요괴사냥-보스도전)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산군전(요괴사냥-보스도전)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천구전(요괴사냥-보스도전)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수인전(요괴사냥-보스도전)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴지옥(요괴사냥-삼천세계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상계(요괴사냥-삼천세계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비나라(요괴사냥-삼천세계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수미산(요괴사냥-삼천세계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도적단(요괴사냥-삼천세계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심연(요괴사냥-삼천세계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선계(요괴사냥-삼천세계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐관수련(요괴사냥-한계돌파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐관수련 컨텐츠를 클리어해 심상베기 효과를 얻으실 수 있습니다.
+능력 각성에서 비전 각성, 요도 각성, 도술 각성을 할 수 있습니다.
+각성 시 다양한 능력치 효과를 얻으실 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1247,11 +1267,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:GE87"/>
+  <dimension ref="A1:GE89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1503,7 +1523,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -1929,10 +1949,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
         <v>42</v>
@@ -2251,10 +2271,10 @@
         <v>9023</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s">
         <v>42</v>
@@ -2274,10 +2294,10 @@
         <v>9016</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s">
         <v>42</v>
@@ -2297,10 +2317,10 @@
         <v>9017</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="F22" t="s">
         <v>42</v>
@@ -2320,10 +2340,10 @@
         <v>9026</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="F23" t="s">
         <v>42</v>
@@ -2343,10 +2363,10 @@
         <v>9027</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s">
         <v>42</v>
@@ -2366,10 +2386,10 @@
         <v>9028</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="F25" t="s">
         <v>42</v>
@@ -2389,10 +2409,10 @@
         <v>9032</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="F26" t="s">
         <v>42</v>
@@ -2412,10 +2432,10 @@
         <v>9033</v>
       </c>
       <c r="D27" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="F27" t="s">
         <v>42</v>
@@ -2435,10 +2455,10 @@
         <v>9037</v>
       </c>
       <c r="D28" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="F28" t="s">
         <v>42</v>
@@ -2458,10 +2478,10 @@
         <v>9038</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="F29" t="s">
         <v>42</v>
@@ -2481,10 +2501,10 @@
         <v>9040</v>
       </c>
       <c r="D30" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="F30" t="s">
         <v>42</v>
@@ -2504,10 +2524,10 @@
         <v>9041</v>
       </c>
       <c r="D31" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="F31" t="s">
         <v>42</v>
@@ -2527,10 +2547,10 @@
         <v>9043</v>
       </c>
       <c r="D32" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="F32" t="s">
         <v>42</v>
@@ -2550,10 +2570,10 @@
         <v>9044</v>
       </c>
       <c r="D33" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="F33" t="s">
         <v>42</v>
@@ -2573,10 +2593,10 @@
         <v>9045</v>
       </c>
       <c r="D34" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="F34" t="s">
         <v>42</v>
@@ -2596,10 +2616,10 @@
         <v>9046</v>
       </c>
       <c r="D35" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="F35" t="s">
         <v>42</v>
@@ -2608,7 +2628,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2616,10 +2636,10 @@
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="F36" t="s">
         <v>42</v>
@@ -2636,10 +2656,10 @@
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="F37" t="s">
         <v>42</v>
@@ -2656,10 +2676,10 @@
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F38" t="s">
         <v>42</v>
@@ -2676,10 +2696,10 @@
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="F39" t="s">
         <v>42</v>
@@ -2688,7 +2708,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2696,10 +2716,10 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="F40" t="s">
         <v>42</v>
@@ -2708,21 +2728,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="2">
-        <v>0</v>
-      </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F41" t="s">
         <v>42</v>
@@ -2731,7 +2748,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2739,19 +2756,16 @@
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F42" t="s">
         <v>42</v>
       </c>
-      <c r="G42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2759,7 +2773,7 @@
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>83</v>
@@ -2767,11 +2781,8 @@
       <c r="F43" t="s">
         <v>42</v>
       </c>
-      <c r="G43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2779,19 +2790,16 @@
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="F44" t="s">
         <v>42</v>
       </c>
-      <c r="G44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2799,19 +2807,16 @@
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F45" t="s">
         <v>42</v>
       </c>
-      <c r="G45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2819,19 +2824,16 @@
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="F46" t="s">
         <v>42</v>
       </c>
-      <c r="G46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2839,30 +2841,30 @@
         <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
         <v>42</v>
       </c>
-      <c r="G47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C48" s="2">
+        <v>0</v>
+      </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="F48" t="s">
         <v>42</v>
@@ -2879,10 +2881,10 @@
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
         <v>42</v>
@@ -2899,10 +2901,10 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F50" t="s">
         <v>42</v>
@@ -2911,7 +2913,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2919,10 +2921,10 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="F51" t="s">
         <v>42</v>
@@ -2931,7 +2933,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2939,10 +2941,10 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F52" t="s">
         <v>42</v>
@@ -2959,10 +2961,10 @@
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
         <v>42</v>
@@ -2971,7 +2973,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2979,10 +2981,10 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
         <v>42</v>
@@ -2999,10 +3001,10 @@
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
         <v>42</v>
@@ -3011,7 +3013,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3019,10 +3021,10 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F56" t="s">
         <v>42</v>
@@ -3031,7 +3033,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3039,10 +3041,10 @@
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F57" t="s">
         <v>42</v>
@@ -3059,10 +3061,10 @@
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F58" t="s">
         <v>42</v>
@@ -3071,7 +3073,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3079,10 +3081,10 @@
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F59" t="s">
         <v>42</v>
@@ -3091,7 +3093,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3099,10 +3101,10 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="F60" t="s">
         <v>42</v>
@@ -3119,10 +3121,10 @@
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F61" t="s">
         <v>42</v>
@@ -3139,10 +3141,10 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F62" t="s">
         <v>42</v>
@@ -3159,10 +3161,10 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F63" t="s">
         <v>42</v>
@@ -3171,7 +3173,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3179,10 +3181,10 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="F64" t="s">
         <v>42</v>
@@ -3191,7 +3193,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3199,10 +3201,10 @@
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="F65" t="s">
         <v>42</v>
@@ -3211,7 +3213,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3219,10 +3221,10 @@
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="F66" t="s">
         <v>42</v>
@@ -3239,13 +3241,19 @@
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="F67" t="s">
+        <v>42</v>
+      </c>
+      <c r="G67" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3253,10 +3261,10 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="F68" t="s">
         <v>42</v>
@@ -3273,10 +3281,10 @@
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="F69" t="s">
         <v>42</v>
@@ -3285,7 +3293,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3293,10 +3301,10 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="F70" t="s">
         <v>42</v>
@@ -3305,7 +3313,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3313,10 +3321,10 @@
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="F71" t="s">
         <v>42</v>
@@ -3325,7 +3333,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3333,10 +3341,10 @@
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="F72" t="s">
         <v>42</v>
@@ -3345,7 +3353,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3353,10 +3361,10 @@
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="F73" t="s">
         <v>42</v>
@@ -3373,19 +3381,13 @@
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F74" t="s">
-        <v>42</v>
-      </c>
-      <c r="G74" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3393,10 +3395,10 @@
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="F75" t="s">
         <v>42</v>
@@ -3405,7 +3407,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3413,10 +3415,10 @@
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="F76" t="s">
         <v>42</v>
@@ -3425,7 +3427,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3433,10 +3435,16 @@
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>176</v>
+        <v>85</v>
+      </c>
+      <c r="F77" t="s">
+        <v>42</v>
+      </c>
+      <c r="G77" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -3447,10 +3455,10 @@
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F78" t="s">
         <v>42</v>
@@ -3467,10 +3475,10 @@
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="F79" t="s">
         <v>42</v>
@@ -3487,10 +3495,10 @@
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F80" t="s">
         <v>42</v>
@@ -3507,10 +3515,10 @@
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="F81" t="s">
         <v>42</v>
@@ -3519,7 +3527,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3527,10 +3535,10 @@
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="F82" t="s">
         <v>42</v>
@@ -3539,7 +3547,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3547,10 +3555,10 @@
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="F83" t="s">
         <v>42</v>
@@ -3559,7 +3567,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3567,10 +3575,10 @@
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F84" t="s">
         <v>42</v>
@@ -3579,7 +3587,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3587,10 +3595,10 @@
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="F85" t="s">
         <v>42</v>
@@ -3599,18 +3607,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="F86" t="s">
         <v>42</v>
@@ -3619,23 +3627,63 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" t="s">
+        <v>109</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F87" t="s">
+        <v>42</v>
+      </c>
+      <c r="G87" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="D87" t="s">
-        <v>154</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F87" t="s">
-        <v>42</v>
-      </c>
-      <c r="G87" t="s">
+      <c r="B88" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D88" t="s">
+        <v>68</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F88" t="s">
+        <v>42</v>
+      </c>
+      <c r="G88" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D89" t="s">
+        <v>117</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F89" t="s">
+        <v>42</v>
+      </c>
+      <c r="G89" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Assets/06.Table/ChoboTable.xlsx
+++ b/Assets/06.Table/ChoboTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A92E933-7215-42A7-8E0D-83914CC28FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BD2F19-5F1F-48A5-AC0A-D82C23D929A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChoboTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="191">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -670,11 +670,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
-"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설", "적", "고", "화", "명"……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>도술(메뉴-특수성장)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -860,6 +855,30 @@
     <t>폐관수련 컨텐츠를 클리어해 심상베기 효과를 얻으실 수 있습니다.
 능력 각성에서 비전 각성, 요도 각성, 도술 각성을 할 수 있습니다.
 각성 시 다양한 능력치 효과를 얻으실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요력 개방(메뉴-특수성장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요석은 스테이지 요괴 처치 시 획득 가능합니다.
+획득한 재화는 요력 강화에 사용하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요력 개방을 통해 요력 피해를 획득하실 수 있습니다.
+요력 개방에는 요석이 필요합니다.
+요석은 스테이지 요괴 처치 시 획득하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
+"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설", "적", "고", "화", "명", "월", "후"……</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1267,11 +1286,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:GE89"/>
+  <dimension ref="A1:GE91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2628,18 +2647,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>9048</v>
       </c>
       <c r="D36" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="F36" t="s">
         <v>42</v>
@@ -2648,7 +2670,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2656,10 +2678,10 @@
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="F37" t="s">
         <v>42</v>
@@ -2676,10 +2698,10 @@
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F38" t="s">
         <v>42</v>
@@ -2696,10 +2718,10 @@
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="F39" t="s">
         <v>42</v>
@@ -2716,10 +2738,10 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="F40" t="s">
         <v>42</v>
@@ -2736,10 +2758,10 @@
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="F41" t="s">
         <v>42</v>
@@ -2748,7 +2770,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2756,16 +2778,19 @@
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="F42" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2773,12 +2798,15 @@
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="F43" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2790,16 +2818,16 @@
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="F44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2807,16 +2835,16 @@
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="F45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2824,16 +2852,16 @@
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F46" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2841,39 +2869,33 @@
         <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="F47" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="2">
-        <v>0</v>
-      </c>
       <c r="D48" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F48" t="s">
         <v>42</v>
       </c>
-      <c r="G48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2881,15 +2903,12 @@
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
-      </c>
-      <c r="G49" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2900,11 +2919,14 @@
       <c r="B50" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C50" s="2">
+        <v>0</v>
+      </c>
       <c r="D50" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F50" t="s">
         <v>42</v>
@@ -2921,10 +2943,10 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
         <v>42</v>
@@ -2933,7 +2955,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2941,10 +2963,10 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F52" t="s">
         <v>42</v>
@@ -2953,7 +2975,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2961,10 +2983,10 @@
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="F53" t="s">
         <v>42</v>
@@ -2973,7 +2995,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2981,10 +3003,10 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="F54" t="s">
         <v>42</v>
@@ -3001,10 +3023,10 @@
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
         <v>42</v>
@@ -3021,10 +3043,10 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="F56" t="s">
         <v>42</v>
@@ -3033,7 +3055,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3041,10 +3063,10 @@
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
         <v>42</v>
@@ -3053,7 +3075,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3061,10 +3083,10 @@
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="F58" t="s">
         <v>42</v>
@@ -3081,10 +3103,10 @@
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="F59" t="s">
         <v>42</v>
@@ -3101,10 +3123,10 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F60" t="s">
         <v>42</v>
@@ -3113,7 +3135,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3121,10 +3143,10 @@
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F61" t="s">
         <v>42</v>
@@ -3141,10 +3163,10 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F62" t="s">
         <v>42</v>
@@ -3161,10 +3183,10 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F63" t="s">
         <v>42</v>
@@ -3181,10 +3203,10 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>62</v>
+        <v>169</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F64" t="s">
         <v>42</v>
@@ -3201,10 +3223,10 @@
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F65" t="s">
         <v>42</v>
@@ -3221,10 +3243,10 @@
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F66" t="s">
         <v>42</v>
@@ -3241,10 +3263,10 @@
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F67" t="s">
         <v>42</v>
@@ -3253,7 +3275,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3261,10 +3283,10 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="F68" t="s">
         <v>42</v>
@@ -3281,10 +3303,10 @@
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F69" t="s">
         <v>42</v>
@@ -3293,7 +3315,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3301,10 +3323,10 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="F70" t="s">
         <v>42</v>
@@ -3313,7 +3335,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3321,10 +3343,10 @@
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="F71" t="s">
         <v>42</v>
@@ -3333,7 +3355,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3341,10 +3363,10 @@
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="F72" t="s">
         <v>42</v>
@@ -3353,7 +3375,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3361,10 +3383,10 @@
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="F73" t="s">
         <v>42</v>
@@ -3373,7 +3395,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3381,13 +3403,19 @@
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="F74" t="s">
+        <v>42</v>
+      </c>
+      <c r="G74" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3395,10 +3423,10 @@
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="F75" t="s">
         <v>42</v>
@@ -3415,19 +3443,13 @@
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F76" t="s">
-        <v>42</v>
-      </c>
-      <c r="G76" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3435,10 +3457,10 @@
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="F77" t="s">
         <v>42</v>
@@ -3455,10 +3477,10 @@
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="F78" t="s">
         <v>42</v>
@@ -3467,7 +3489,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3475,10 +3497,10 @@
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F79" t="s">
         <v>42</v>
@@ -3495,10 +3517,10 @@
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="F80" t="s">
         <v>42</v>
@@ -3515,10 +3537,10 @@
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F81" t="s">
         <v>42</v>
@@ -3527,7 +3549,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3535,10 +3557,10 @@
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="F82" t="s">
         <v>42</v>
@@ -3547,7 +3569,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3555,10 +3577,10 @@
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="F83" t="s">
         <v>42</v>
@@ -3567,7 +3589,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3575,10 +3597,10 @@
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="F84" t="s">
         <v>42</v>
@@ -3595,10 +3617,10 @@
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="F85" t="s">
         <v>42</v>
@@ -3607,7 +3629,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3615,10 +3637,10 @@
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="F86" t="s">
         <v>42</v>
@@ -3627,7 +3649,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3635,10 +3657,10 @@
         <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="F87" t="s">
         <v>42</v>
@@ -3647,18 +3669,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>68</v>
+        <v>183</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="F88" t="s">
         <v>42</v>
@@ -3667,23 +3689,63 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" t="s">
+        <v>109</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F89" t="s">
+        <v>42</v>
+      </c>
+      <c r="G89" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D90" t="s">
+        <v>68</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F90" t="s">
+        <v>42</v>
+      </c>
+      <c r="G90" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D91" t="s">
         <v>117</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E91" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F89" t="s">
-        <v>42</v>
-      </c>
-      <c r="G89" t="s">
+      <c r="F91" t="s">
+        <v>42</v>
+      </c>
+      <c r="G91" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Assets/06.Table/ChoboTable.xlsx
+++ b/Assets/06.Table/ChoboTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BD2F19-5F1F-48A5-AC0A-D82C23D929A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6056E09C-B068-453F-B6DD-8D38246D7B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChoboTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="197">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -878,7 +878,36 @@
   </si>
   <si>
     <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
-"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설", "적", "고", "화", "명", "월", "후"……</t>
+"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설", "적", "고", "화", "명", "월", "후", "단"……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태극 영약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태극 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태극 조각은 스테이지 요괴 처치 시 획득 가능합니다.
+획득한 재화는 태극 심법에서 사용하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태극 영약은 하루에 1개씩 획득하실 수 있습니다.
+영약 사용 시, 태극 심법의 단련 확률을 높일 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태극 심법(메뉴-특수성장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태극 조각을 통해 태극 베기 증폭 효과를 획득하실 수 있습니다.
+태극 심법 단련에는 태극 조각과 태극 영약이 사용됩니다.
+단련하기 게이지에 따라서 단계를 올릴 수 있는 확률이 결정되며 확률에 따라 태극 심법을 상승시킬 수 있습니다.
+태극 조각은 스테이지 요괴를 처치하여 획득할 수 있고 태극 영약은 하루에 한 개씩 획득할 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1286,11 +1315,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:GE91"/>
+  <dimension ref="A1:GE94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E91" sqref="E91"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2670,18 +2699,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>9049</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="F37" t="s">
         <v>42</v>
@@ -2690,18 +2722,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>9050</v>
       </c>
       <c r="D38" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>114</v>
+        <v>194</v>
       </c>
       <c r="F38" t="s">
         <v>42</v>
@@ -2710,7 +2745,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2718,10 +2753,10 @@
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F39" t="s">
         <v>42</v>
@@ -2738,10 +2773,10 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="F40" t="s">
         <v>42</v>
@@ -2758,10 +2793,10 @@
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>189</v>
+        <v>123</v>
       </c>
       <c r="F41" t="s">
         <v>42</v>
@@ -2770,7 +2805,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="99" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2778,10 +2813,10 @@
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="F42" t="s">
         <v>42</v>
@@ -2798,10 +2833,10 @@
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F43" t="s">
         <v>42</v>
@@ -2810,7 +2845,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2818,16 +2853,19 @@
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="F44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2835,16 +2873,19 @@
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="F45" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2852,16 +2893,19 @@
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="F46" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2869,16 +2913,16 @@
         <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F47" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2886,16 +2930,16 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F48" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2903,39 +2947,33 @@
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F49" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="2">
-        <v>0</v>
-      </c>
       <c r="D50" t="s">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F50" t="s">
         <v>42</v>
       </c>
-      <c r="G50" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2943,19 +2981,16 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="F51" t="s">
         <v>42</v>
       </c>
-      <c r="G51" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2963,15 +2998,12 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
-      </c>
-      <c r="G52" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2982,11 +3014,14 @@
       <c r="B53" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C53" s="2">
+        <v>0</v>
+      </c>
       <c r="D53" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="F53" t="s">
         <v>42</v>
@@ -2995,7 +3030,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3003,10 +3038,10 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
         <v>42</v>
@@ -3015,7 +3050,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3023,10 +3058,10 @@
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F55" t="s">
         <v>42</v>
@@ -3043,10 +3078,10 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
         <v>42</v>
@@ -3063,10 +3098,10 @@
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F57" t="s">
         <v>42</v>
@@ -3075,7 +3110,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3083,10 +3118,10 @@
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
         <v>42</v>
@@ -3103,10 +3138,10 @@
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="F59" t="s">
         <v>42</v>
@@ -3123,10 +3158,10 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
         <v>42</v>
@@ -3143,10 +3178,10 @@
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F61" t="s">
         <v>42</v>
@@ -3155,7 +3190,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3163,10 +3198,10 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F62" t="s">
         <v>42</v>
@@ -3183,10 +3218,10 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F63" t="s">
         <v>42</v>
@@ -3195,7 +3230,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3203,10 +3238,10 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F64" t="s">
         <v>42</v>
@@ -3223,10 +3258,10 @@
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F65" t="s">
         <v>42</v>
@@ -3243,10 +3278,10 @@
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F66" t="s">
         <v>42</v>
@@ -3263,10 +3298,10 @@
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F67" t="s">
         <v>42</v>
@@ -3283,10 +3318,10 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F68" t="s">
         <v>42</v>
@@ -3303,10 +3338,10 @@
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F69" t="s">
         <v>42</v>
@@ -3315,7 +3350,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3323,10 +3358,10 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="F70" t="s">
         <v>42</v>
@@ -3343,10 +3378,10 @@
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F71" t="s">
         <v>42</v>
@@ -3363,10 +3398,10 @@
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F72" t="s">
         <v>42</v>
@@ -3375,7 +3410,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3383,10 +3418,10 @@
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="F73" t="s">
         <v>42</v>
@@ -3395,7 +3430,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3403,10 +3438,10 @@
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="F74" t="s">
         <v>42</v>
@@ -3415,7 +3450,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3423,10 +3458,10 @@
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="F75" t="s">
         <v>42</v>
@@ -3435,7 +3470,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3443,13 +3478,19 @@
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="F76" t="s">
+        <v>42</v>
+      </c>
+      <c r="G76" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3457,10 +3498,10 @@
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="F77" t="s">
         <v>42</v>
@@ -3469,7 +3510,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3477,10 +3518,10 @@
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="F78" t="s">
         <v>42</v>
@@ -3489,7 +3530,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3497,16 +3538,10 @@
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F79" t="s">
-        <v>42</v>
-      </c>
-      <c r="G79" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -3517,10 +3552,10 @@
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="F80" t="s">
         <v>42</v>
@@ -3537,10 +3572,10 @@
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F81" t="s">
         <v>42</v>
@@ -3549,7 +3584,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3557,10 +3592,10 @@
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F82" t="s">
         <v>42</v>
@@ -3577,10 +3612,10 @@
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="F83" t="s">
         <v>42</v>
@@ -3589,7 +3624,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3597,10 +3632,10 @@
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>185</v>
+        <v>96</v>
       </c>
       <c r="F84" t="s">
         <v>42</v>
@@ -3609,7 +3644,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3617,10 +3652,10 @@
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="F85" t="s">
         <v>42</v>
@@ -3629,7 +3664,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3637,10 +3672,10 @@
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="F86" t="s">
         <v>42</v>
@@ -3649,7 +3684,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3657,10 +3692,10 @@
         <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="F87" t="s">
         <v>42</v>
@@ -3669,7 +3704,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3677,10 +3712,10 @@
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F88" t="s">
         <v>42</v>
@@ -3689,7 +3724,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3697,10 +3732,10 @@
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F89" t="s">
         <v>42</v>
@@ -3709,18 +3744,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="F90" t="s">
         <v>42</v>
@@ -3729,23 +3764,83 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" t="s">
+        <v>183</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F91" t="s">
+        <v>42</v>
+      </c>
+      <c r="G91" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" t="s">
+        <v>109</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F92" t="s">
+        <v>42</v>
+      </c>
+      <c r="G92" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D93" t="s">
+        <v>68</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F93" t="s">
+        <v>42</v>
+      </c>
+      <c r="G93" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D94" t="s">
         <v>117</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E94" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F91" t="s">
-        <v>42</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="F94" t="s">
+        <v>42</v>
+      </c>
+      <c r="G94" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Assets/06.Table/ChoboTable.xlsx
+++ b/Assets/06.Table/ChoboTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6056E09C-B068-453F-B6DD-8D38246D7B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EFCD99-32C1-4F6B-9575-622D130B4F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChoboTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="205">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -877,11 +877,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
-"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설", "적", "고", "화", "명", "월", "후", "단"……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>태극 영약</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -904,10 +899,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
+"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설", "적", "고", "화", "명", "월", "후", "단", "절"……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은구미호전(요괴사냥-한계돌파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호의 시련(요괴사냥-보스도전)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러가지 컨텐츠를 클리어해 수호 구슬을 획득하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">검은 구미호전을 클리어하고 단계를 상승시킬 수 있습니다.
+상승 시킨 단계에 따라 소탕권을 사용하면 검은 구미호 구슬을
+획득하실 수 있습니다.
+획득한 검은 구미호 구슬으로 다양한 능력치를 올려
+능력치 효과를 얻으실 수 있습니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>태극 조각을 통해 태극 베기 증폭 효과를 획득하실 수 있습니다.
 태극 심법 단련에는 태극 조각과 태극 영약이 사용됩니다.
-단련하기 게이지에 따라서 단계를 올릴 수 있는 확률이 결정되며 확률에 따라 태극 심법을 상승시킬 수 있습니다.
-태극 조각은 스테이지 요괴를 처치하여 획득할 수 있고 태극 영약은 하루에 한 개씩 획득할 수 있습니다.</t>
+단련하기 게이지에 따라서 단계를 올릴 수 있는 확률이 결정되며
+확률에 따라 태극 심법을 상승시킬 수 있습니다.
+태극 조각은 스테이지 요괴를 처치하여 획득할 수 있고 태극 영약은
+하루에 한 개씩 획득할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은 구미호 구슬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은 구미호 구슬 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은 구미호전에서 획득할 수 있는 재화 입니다.
+능력치를 강화하는데 사용하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소탕권은 매일 1개씩 획득 가능합니다.
+소탕 시 검은구미호전 단계에 따라
+검은 구미호 구슬을 획득하실 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1315,11 +1356,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:GE94"/>
+  <dimension ref="A1:GE98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2710,10 +2751,10 @@
         <v>9049</v>
       </c>
       <c r="D37" t="s">
+        <v>191</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="F37" t="s">
         <v>42</v>
@@ -2733,10 +2774,10 @@
         <v>9050</v>
       </c>
       <c r="D38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F38" t="s">
         <v>42</v>
@@ -2745,24 +2786,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>9052</v>
       </c>
       <c r="D39" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F39" t="s">
-        <v>42</v>
-      </c>
-      <c r="G39" t="s">
-        <v>42</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2770,13 +2808,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>9053</v>
       </c>
       <c r="D40" t="s">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
       <c r="F40" t="s">
         <v>42</v>
@@ -2785,7 +2826,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2793,10 +2834,10 @@
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F41" t="s">
         <v>42</v>
@@ -2805,7 +2846,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2813,10 +2854,10 @@
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>196</v>
+        <v>114</v>
       </c>
       <c r="F42" t="s">
         <v>42</v>
@@ -2833,10 +2874,10 @@
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="F43" t="s">
         <v>42</v>
@@ -2845,7 +2886,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="99" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2853,10 +2894,10 @@
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="F44" t="s">
         <v>42</v>
@@ -2873,10 +2914,10 @@
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="F45" t="s">
         <v>42</v>
@@ -2893,10 +2934,10 @@
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="F46" t="s">
         <v>42</v>
@@ -2905,7 +2946,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2913,16 +2954,19 @@
         <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="F47" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2930,12 +2974,15 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="F48" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2947,16 +2994,16 @@
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="F49" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2964,16 +3011,16 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="F50" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2981,16 +3028,16 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F51" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2998,39 +3045,33 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="F52" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="2">
-        <v>0</v>
-      </c>
       <c r="D53" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F53" t="s">
         <v>42</v>
       </c>
-      <c r="G53" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3038,15 +3079,12 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
-      </c>
-      <c r="G54" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3057,11 +3095,14 @@
       <c r="B55" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C55" s="2">
+        <v>0</v>
+      </c>
       <c r="D55" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F55" t="s">
         <v>42</v>
@@ -3078,10 +3119,10 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
         <v>42</v>
@@ -3090,7 +3131,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3098,10 +3139,10 @@
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F57" t="s">
         <v>42</v>
@@ -3110,7 +3151,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3118,10 +3159,10 @@
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="F58" t="s">
         <v>42</v>
@@ -3130,7 +3171,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3138,10 +3179,10 @@
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="F59" t="s">
         <v>42</v>
@@ -3158,10 +3199,10 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
         <v>42</v>
@@ -3178,10 +3219,10 @@
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="F61" t="s">
         <v>42</v>
@@ -3190,7 +3231,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3198,10 +3239,10 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
         <v>42</v>
@@ -3210,7 +3251,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3218,10 +3259,10 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="F63" t="s">
         <v>42</v>
@@ -3238,10 +3279,10 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="F64" t="s">
         <v>42</v>
@@ -3258,10 +3299,10 @@
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F65" t="s">
         <v>42</v>
@@ -3270,7 +3311,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3278,10 +3319,10 @@
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F66" t="s">
         <v>42</v>
@@ -3298,10 +3339,10 @@
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F67" t="s">
         <v>42</v>
@@ -3318,10 +3359,10 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F68" t="s">
         <v>42</v>
@@ -3338,10 +3379,10 @@
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>62</v>
+        <v>169</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F69" t="s">
         <v>42</v>
@@ -3358,10 +3399,10 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F70" t="s">
         <v>42</v>
@@ -3378,10 +3419,10 @@
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F71" t="s">
         <v>42</v>
@@ -3398,10 +3439,10 @@
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F72" t="s">
         <v>42</v>
@@ -3410,7 +3451,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3418,10 +3459,10 @@
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="F73" t="s">
         <v>42</v>
@@ -3438,10 +3479,10 @@
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F74" t="s">
         <v>42</v>
@@ -3450,7 +3491,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3458,10 +3499,10 @@
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="F75" t="s">
         <v>42</v>
@@ -3470,7 +3511,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3478,10 +3519,10 @@
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="F76" t="s">
         <v>42</v>
@@ -3490,7 +3531,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3498,10 +3539,10 @@
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="F77" t="s">
         <v>42</v>
@@ -3510,7 +3551,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3518,10 +3559,10 @@
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="F78" t="s">
         <v>42</v>
@@ -3530,7 +3571,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3538,13 +3579,19 @@
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="F79" t="s">
+        <v>42</v>
+      </c>
+      <c r="G79" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3552,10 +3599,10 @@
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="F80" t="s">
         <v>42</v>
@@ -3572,19 +3619,13 @@
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F81" t="s">
-        <v>42</v>
-      </c>
-      <c r="G81" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3592,10 +3633,10 @@
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="F82" t="s">
         <v>42</v>
@@ -3612,10 +3653,10 @@
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="F83" t="s">
         <v>42</v>
@@ -3624,7 +3665,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3632,10 +3673,10 @@
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F84" t="s">
         <v>42</v>
@@ -3652,10 +3693,10 @@
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="F85" t="s">
         <v>42</v>
@@ -3672,10 +3713,10 @@
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F86" t="s">
         <v>42</v>
@@ -3684,7 +3725,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3692,10 +3733,10 @@
         <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="F87" t="s">
         <v>42</v>
@@ -3704,7 +3745,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3712,10 +3753,10 @@
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="F88" t="s">
         <v>42</v>
@@ -3724,7 +3765,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3732,10 +3773,10 @@
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="F89" t="s">
         <v>42</v>
@@ -3752,10 +3793,10 @@
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="F90" t="s">
         <v>42</v>
@@ -3764,7 +3805,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3772,10 +3813,10 @@
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>101</v>
+        <v>199</v>
       </c>
       <c r="F91" t="s">
         <v>42</v>
@@ -3784,7 +3825,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3792,10 +3833,10 @@
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F92" t="s">
         <v>42</v>
@@ -3804,18 +3845,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="F93" t="s">
         <v>42</v>
@@ -3824,23 +3865,103 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" t="s">
+        <v>197</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F94" t="s">
+        <v>42</v>
+      </c>
+      <c r="G94" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" t="s">
+        <v>183</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F95" t="s">
+        <v>42</v>
+      </c>
+      <c r="G95" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" t="s">
+        <v>109</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F96" t="s">
+        <v>42</v>
+      </c>
+      <c r="G96" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D97" t="s">
+        <v>68</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F97" t="s">
+        <v>42</v>
+      </c>
+      <c r="G97" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D98" t="s">
         <v>117</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E98" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F94" t="s">
-        <v>42</v>
-      </c>
-      <c r="G94" t="s">
+      <c r="F98" t="s">
+        <v>42</v>
+      </c>
+      <c r="G98" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Assets/06.Table/ChoboTable.xlsx
+++ b/Assets/06.Table/ChoboTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EFCD99-32C1-4F6B-9575-622D130B4F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD165A5-7B9F-4EBF-AD14-ACA11D15E1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="223">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -656,11 +656,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대산의 정수는 십만대산 콘텐츠에서 획득 가능합니다.
-획득한 재화는 교환소에서 각종 재화로 교환 가능합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>명예의 증표</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -896,11 +891,6 @@
   </si>
   <si>
     <t>태극 심법(메뉴-특수성장)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
-"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설", "적", "고", "화", "명", "월", "후", "단", "절"……</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -950,6 +940,101 @@
 소탕 시 검은구미호전 단계에 따라
 검은 구미호 구슬을 획득하실 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
+"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설", "적", "고", "화", "명", "월", "후", "단", "절", "격"……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비무대회(메뉴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우 정수(메뉴-특수성장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야차 강화(메뉴-특수성장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환골 탈태(메뉴-특수성장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수련의 증표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수련의 방 입장권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비무 증표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비무 대회 입장권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비무 대회 입장권은 매주 7개씩 획득 가능합니다.
+비무 대회에 입장할 때 마다 1개씩 소모하게 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비무 대회에서 승리/패배 시 비무 증표를 획득 가능합니다.
+높은 난이도에서 승리 시 더 많은 비무 증표를 획득할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수련의 방에서 획득할 수 있는 재화 입니다.
+환골 탈태를 수련하는데 사용하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소탕권은 매일 1개씩 획득 가능합니다.
+소탕 시 수련의 방 단계에 따라
+수련의 증표를 획득하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유물 복원(메뉴-특수성장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야차 무기 획득 시 활성화가 됩니다.
+수련의 돌을 소모하여 환수 지배 능력치를 올릴 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유물 조각을 통해 능력치를 획득 가능합니다.
+여러 가지 컨텐츠를 클리어해 특별한 유물을 획득할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수련의 증표를 통해 무공 피해를 획득하실 수 있습니다.
+수련의 방에서 수련의 증표를 획득하실 수 있습니다.
+소탕권 사용 시 일정량의 수련의 증표를 즉시 획득하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 유저의 공격을 피하며 상대방의 체력을 모두 깎으면 승리할 수 있습니다.
+난이도에 따라 획득할 수 있는 증표와 점수가 다릅니다.
+높은 난이도 입장 시 더 많은 보상을 획득하실 수 있습니다.
+일부 보상의 경우 특별한 조건을 만족해야 획득하실 수 있습니다.
+획득한 증표는 상점에서 재화로 교환이 가능합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대산의 정수는 십만대산 컨텐츠에서 획득 가능합니다.
+획득한 재화는 교환소에서 각종 재화로 교환 가능합니다.</t>
+  </si>
+  <si>
+    <t>여우 구슬/ 여우불 컨텐츠가 존재합니다.
+여우 구슬은 여우구슬을 획득하여 구슬을 각성시킬 수 있습니다.
+여우불은 여우불씨를 통해 여우베기 능력치를 획득하실 수 있습니다.</t>
   </si>
 </sst>
 </file>
@@ -1356,11 +1441,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:GE98"/>
+  <dimension ref="A1:GE107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2685,7 +2770,7 @@
         <v>136</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>137</v>
+        <v>221</v>
       </c>
       <c r="F34" t="s">
         <v>42</v>
@@ -2705,10 +2790,10 @@
         <v>9046</v>
       </c>
       <c r="D35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="F35" t="s">
         <v>42</v>
@@ -2728,10 +2813,10 @@
         <v>9048</v>
       </c>
       <c r="D36" t="s">
+        <v>186</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="F36" t="s">
         <v>42</v>
@@ -2751,10 +2836,10 @@
         <v>9049</v>
       </c>
       <c r="D37" t="s">
+        <v>190</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="F37" t="s">
         <v>42</v>
@@ -2774,10 +2859,10 @@
         <v>9050</v>
       </c>
       <c r="D38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F38" t="s">
         <v>42</v>
@@ -2797,10 +2882,10 @@
         <v>9052</v>
       </c>
       <c r="D39" t="s">
+        <v>199</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2814,11 +2899,11 @@
         <v>9053</v>
       </c>
       <c r="D40" t="s">
+        <v>200</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="F40" t="s">
         <v>42</v>
       </c>
@@ -2826,24 +2911,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>9054</v>
       </c>
       <c r="D41" t="s">
-        <v>144</v>
+        <v>208</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F41" t="s">
-        <v>42</v>
-      </c>
-      <c r="G41" t="s">
-        <v>42</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2851,62 +2933,53 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>9055</v>
       </c>
       <c r="D42" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>9056</v>
       </c>
       <c r="D43" t="s">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F43" t="s">
-        <v>42</v>
-      </c>
-      <c r="G43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>9057</v>
       </c>
       <c r="D44" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F44" t="s">
-        <v>42</v>
-      </c>
-      <c r="G44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2917,7 +2990,7 @@
         <v>143</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="F45" t="s">
         <v>42</v>
@@ -2934,10 +3007,10 @@
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="F46" t="s">
         <v>42</v>
@@ -2946,7 +3019,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2954,16 +3027,10 @@
         <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F47" t="s">
-        <v>42</v>
-      </c>
-      <c r="G47" t="s">
-        <v>42</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2974,10 +3041,10 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="F48" t="s">
         <v>42</v>
@@ -2986,7 +3053,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2994,16 +3061,19 @@
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="F49" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3011,16 +3081,13 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F50" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="99" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3028,12 +3095,15 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="F51" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3045,16 +3115,19 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>63</v>
+        <v>207</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>58</v>
+        <v>219</v>
       </c>
       <c r="F52" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="G52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3062,16 +3135,19 @@
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F53" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="G53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3079,30 +3155,30 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>91</v>
+        <v>188</v>
       </c>
       <c r="F54" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="G54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="2">
-        <v>0</v>
-      </c>
       <c r="D55" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="F55" t="s">
         <v>42</v>
@@ -3111,7 +3187,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3119,10 +3195,10 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="F56" t="s">
         <v>42</v>
@@ -3131,7 +3207,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3139,10 +3215,10 @@
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>149</v>
+        <v>204</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>64</v>
+        <v>220</v>
       </c>
       <c r="F57" t="s">
         <v>42</v>
@@ -3151,7 +3227,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3159,10 +3235,10 @@
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="F58" t="s">
         <v>42</v>
@@ -3179,10 +3255,10 @@
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="F59" t="s">
         <v>42</v>
@@ -3199,10 +3275,10 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="F60" t="s">
         <v>42</v>
@@ -3211,7 +3287,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3219,10 +3295,10 @@
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="F61" t="s">
         <v>42</v>
@@ -3231,7 +3307,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3239,10 +3315,10 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="F62" t="s">
         <v>42</v>
@@ -3251,7 +3327,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3259,10 +3335,10 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="F63" t="s">
         <v>42</v>
@@ -3278,11 +3354,14 @@
       <c r="B64" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C64" s="2">
+        <v>0</v>
+      </c>
       <c r="D64" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F64" t="s">
         <v>42</v>
@@ -3291,7 +3370,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3299,10 +3378,10 @@
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F65" t="s">
         <v>42</v>
@@ -3319,10 +3398,10 @@
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="F66" t="s">
         <v>42</v>
@@ -3331,7 +3410,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3339,10 +3418,10 @@
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="F67" t="s">
         <v>42</v>
@@ -3359,10 +3438,10 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F68" t="s">
         <v>42</v>
@@ -3379,10 +3458,10 @@
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
         <v>42</v>
@@ -3391,7 +3470,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3399,10 +3478,10 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="F70" t="s">
         <v>42</v>
@@ -3419,10 +3498,10 @@
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
         <v>42</v>
@@ -3431,7 +3510,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3439,10 +3518,10 @@
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F72" t="s">
         <v>42</v>
@@ -3451,7 +3530,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3459,10 +3538,10 @@
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F73" t="s">
         <v>42</v>
@@ -3479,10 +3558,10 @@
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F74" t="s">
         <v>42</v>
@@ -3499,10 +3578,10 @@
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="F75" t="s">
         <v>42</v>
@@ -3519,10 +3598,10 @@
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F76" t="s">
         <v>42</v>
@@ -3539,10 +3618,10 @@
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F77" t="s">
         <v>42</v>
@@ -3551,7 +3630,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3559,10 +3638,10 @@
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F78" t="s">
         <v>42</v>
@@ -3571,7 +3650,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3579,10 +3658,10 @@
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="F79" t="s">
         <v>42</v>
@@ -3591,7 +3670,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3599,10 +3678,10 @@
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="F80" t="s">
         <v>42</v>
@@ -3619,10 +3698,16 @@
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>76</v>
+        <v>52</v>
+      </c>
+      <c r="F81" t="s">
+        <v>42</v>
+      </c>
+      <c r="G81" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -3633,10 +3718,10 @@
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F82" t="s">
         <v>42</v>
@@ -3653,10 +3738,10 @@
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="F83" t="s">
         <v>42</v>
@@ -3665,7 +3750,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3673,10 +3758,10 @@
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="F84" t="s">
         <v>42</v>
@@ -3693,10 +3778,10 @@
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="F85" t="s">
         <v>42</v>
@@ -3713,10 +3798,10 @@
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="F86" t="s">
         <v>42</v>
@@ -3725,7 +3810,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3733,10 +3818,10 @@
         <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F87" t="s">
         <v>42</v>
@@ -3745,7 +3830,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3753,10 +3838,10 @@
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F88" t="s">
         <v>42</v>
@@ -3765,7 +3850,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3773,10 +3858,10 @@
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="F89" t="s">
         <v>42</v>
@@ -3785,7 +3870,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3793,19 +3878,13 @@
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F90" t="s">
-        <v>42</v>
-      </c>
-      <c r="G90" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3813,10 +3892,10 @@
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>199</v>
+        <v>54</v>
       </c>
       <c r="F91" t="s">
         <v>42</v>
@@ -3825,7 +3904,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3833,10 +3912,10 @@
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F92" t="s">
         <v>42</v>
@@ -3845,7 +3924,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3853,10 +3932,10 @@
         <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="F93" t="s">
         <v>42</v>
@@ -3873,10 +3952,10 @@
         <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="F94" t="s">
         <v>42</v>
@@ -3893,10 +3972,10 @@
         <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F95" t="s">
         <v>42</v>
@@ -3913,10 +3992,10 @@
         <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="F96" t="s">
         <v>42</v>
@@ -3925,18 +4004,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>195</v>
+        <v>88</v>
       </c>
       <c r="F97" t="s">
         <v>42</v>
@@ -3950,18 +4029,198 @@
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" t="s">
+        <v>183</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F98" t="s">
+        <v>42</v>
+      </c>
+      <c r="G98" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" t="s">
+        <v>173</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F99" t="s">
+        <v>42</v>
+      </c>
+      <c r="G99" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" t="s">
+        <v>194</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F100" t="s">
+        <v>42</v>
+      </c>
+      <c r="G100" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" t="s">
+        <v>174</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F101" t="s">
+        <v>42</v>
+      </c>
+      <c r="G101" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" t="s">
+        <v>175</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F102" t="s">
+        <v>42</v>
+      </c>
+      <c r="G102" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" t="s">
+        <v>195</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F103" t="s">
+        <v>42</v>
+      </c>
+      <c r="G103" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" t="s">
+        <v>182</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F104" t="s">
+        <v>42</v>
+      </c>
+      <c r="G104" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" t="s">
+        <v>109</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F105" t="s">
+        <v>42</v>
+      </c>
+      <c r="G105" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D106" t="s">
+        <v>68</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F106" t="s">
+        <v>42</v>
+      </c>
+      <c r="G106" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D107" t="s">
         <v>117</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E107" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F98" t="s">
-        <v>42</v>
-      </c>
-      <c r="G98" t="s">
+      <c r="F107" t="s">
+        <v>42</v>
+      </c>
+      <c r="G107" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Assets/06.Table/ChoboTable.xlsx
+++ b/Assets/06.Table/ChoboTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD165A5-7B9F-4EBF-AD14-ACA11D15E1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1008C6D-4383-4820-B383-B721986AC8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChoboTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="225">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -942,11 +942,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
-"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설", "적", "고", "화", "명", "월", "후", "단", "절", "격"……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비무대회(메뉴)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1035,6 +1030,21 @@
     <t>여우 구슬/ 여우불 컨텐츠가 존재합니다.
 여우 구슬은 여우구슬을 획득하여 구슬을 각성시킬 수 있습니다.
 여우불은 여우불씨를 통해 여우베기 능력치를 획득하실 수 있습니다.</t>
+  </si>
+  <si>
+    <t>푸른 강철이(메뉴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른 강철이는 15초간 점수 기록이 가능합니다.
+일정 조건 달성 시 점수를 반영할 컨텐츠를 해금할 수 있습니다.
+기록한 점수가 해금된 컨텐츠에 반영이 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
+"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설", "적", "고", "화", "명", "월", "후", "단", "절", "격", "창", "공"……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1441,11 +1451,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:GE107"/>
+  <dimension ref="A1:GE108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2770,7 +2780,7 @@
         <v>136</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F34" t="s">
         <v>42</v>
@@ -2922,10 +2932,10 @@
         <v>9054</v>
       </c>
       <c r="D41" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2939,10 +2949,10 @@
         <v>9055</v>
       </c>
       <c r="D42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -2956,10 +2966,10 @@
         <v>9056</v>
       </c>
       <c r="D43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -2973,10 +2983,10 @@
         <v>9057</v>
       </c>
       <c r="D44" t="s">
+        <v>210</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -3007,10 +3017,10 @@
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F46" t="s">
         <v>42</v>
@@ -3027,10 +3037,10 @@
         <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -3081,10 +3091,10 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="99" x14ac:dyDescent="0.3">
@@ -3115,10 +3125,10 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F52" t="s">
         <v>42</v>
@@ -3207,7 +3217,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3215,10 +3225,10 @@
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F57" t="s">
         <v>42</v>
@@ -3227,7 +3237,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3235,10 +3245,10 @@
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>57</v>
+        <v>219</v>
       </c>
       <c r="F58" t="s">
         <v>42</v>
@@ -3255,10 +3265,10 @@
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="F59" t="s">
         <v>42</v>
@@ -3275,10 +3285,10 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F60" t="s">
         <v>42</v>
@@ -3287,7 +3297,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3295,10 +3305,10 @@
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="F61" t="s">
         <v>42</v>
@@ -3307,7 +3317,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3315,10 +3325,10 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="F62" t="s">
         <v>42</v>
@@ -3335,10 +3345,10 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F63" t="s">
         <v>42</v>
@@ -3347,21 +3357,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="2">
-        <v>0</v>
-      </c>
       <c r="D64" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="F64" t="s">
         <v>42</v>
@@ -3377,11 +3384,14 @@
       <c r="B65" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C65" s="2">
+        <v>0</v>
+      </c>
       <c r="D65" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="F65" t="s">
         <v>42</v>
@@ -3398,10 +3408,10 @@
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F66" t="s">
         <v>42</v>
@@ -3418,10 +3428,10 @@
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="F67" t="s">
         <v>42</v>
@@ -3430,7 +3440,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3438,10 +3448,10 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="F68" t="s">
         <v>42</v>
@@ -3458,10 +3468,10 @@
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F69" t="s">
         <v>42</v>
@@ -3470,7 +3480,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3478,10 +3488,10 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
         <v>42</v>
@@ -3490,7 +3500,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3498,10 +3508,10 @@
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="F71" t="s">
         <v>42</v>
@@ -3510,7 +3520,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3518,10 +3528,10 @@
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
         <v>42</v>
@@ -3538,10 +3548,10 @@
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F73" t="s">
         <v>42</v>
@@ -3550,7 +3560,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3558,10 +3568,10 @@
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F74" t="s">
         <v>42</v>
@@ -3570,7 +3580,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3578,10 +3588,10 @@
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F75" t="s">
         <v>42</v>
@@ -3590,7 +3600,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3598,10 +3608,10 @@
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F76" t="s">
         <v>42</v>
@@ -3618,10 +3628,10 @@
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F77" t="s">
         <v>42</v>
@@ -3638,10 +3648,10 @@
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F78" t="s">
         <v>42</v>
@@ -3658,10 +3668,10 @@
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F79" t="s">
         <v>42</v>
@@ -3678,10 +3688,10 @@
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>62</v>
+        <v>176</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F80" t="s">
         <v>42</v>
@@ -3698,10 +3708,10 @@
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F81" t="s">
         <v>42</v>
@@ -3718,10 +3728,10 @@
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F82" t="s">
         <v>42</v>
@@ -3738,10 +3748,10 @@
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F83" t="s">
         <v>42</v>
@@ -3750,7 +3760,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3758,10 +3768,10 @@
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="F84" t="s">
         <v>42</v>
@@ -3770,7 +3780,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3778,10 +3788,10 @@
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="F85" t="s">
         <v>42</v>
@@ -3798,10 +3808,10 @@
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F86" t="s">
         <v>42</v>
@@ -3810,7 +3820,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3818,10 +3828,10 @@
         <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="F87" t="s">
         <v>42</v>
@@ -3830,7 +3840,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3838,10 +3848,10 @@
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="F88" t="s">
         <v>42</v>
@@ -3858,10 +3868,10 @@
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="F89" t="s">
         <v>42</v>
@@ -3870,7 +3880,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3878,10 +3888,16 @@
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>76</v>
+        <v>128</v>
+      </c>
+      <c r="F90" t="s">
+        <v>42</v>
+      </c>
+      <c r="G90" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -3892,16 +3908,10 @@
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F91" t="s">
-        <v>42</v>
-      </c>
-      <c r="G91" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -3912,10 +3922,10 @@
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="F92" t="s">
         <v>42</v>
@@ -3924,7 +3934,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3932,10 +3942,10 @@
         <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="F93" t="s">
         <v>42</v>
@@ -3944,7 +3954,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3952,10 +3962,10 @@
         <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="F94" t="s">
         <v>42</v>
@@ -3972,10 +3982,10 @@
         <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="F95" t="s">
         <v>42</v>
@@ -3992,10 +4002,10 @@
         <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="F96" t="s">
         <v>42</v>
@@ -4012,10 +4022,10 @@
         <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F97" t="s">
         <v>42</v>
@@ -4024,7 +4034,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4032,10 +4042,10 @@
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>184</v>
+        <v>88</v>
       </c>
       <c r="F98" t="s">
         <v>42</v>
@@ -4044,7 +4054,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4052,10 +4062,10 @@
         <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="F99" t="s">
         <v>42</v>
@@ -4064,7 +4074,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4072,10 +4082,10 @@
         <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="F100" t="s">
         <v>42</v>
@@ -4084,7 +4094,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4092,10 +4102,10 @@
         <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>115</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
         <v>42</v>
@@ -4112,10 +4122,10 @@
         <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="F102" t="s">
         <v>42</v>
@@ -4124,7 +4134,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4132,10 +4142,10 @@
         <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="F103" t="s">
         <v>42</v>
@@ -4152,10 +4162,10 @@
         <v>7</v>
       </c>
       <c r="D104" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="F104" t="s">
         <v>42</v>
@@ -4172,10 +4182,10 @@
         <v>7</v>
       </c>
       <c r="D105" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F105" t="s">
         <v>42</v>
@@ -4184,18 +4194,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="D106" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>203</v>
+        <v>108</v>
       </c>
       <c r="F106" t="s">
         <v>42</v>
@@ -4204,7 +4214,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4212,15 +4222,35 @@
         <v>67</v>
       </c>
       <c r="D107" t="s">
+        <v>68</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F107" t="s">
+        <v>42</v>
+      </c>
+      <c r="G107" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D108" t="s">
         <v>117</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E108" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F107" t="s">
-        <v>42</v>
-      </c>
-      <c r="G107" t="s">
+      <c r="F108" t="s">
+        <v>42</v>
+      </c>
+      <c r="G108" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Assets/06.Table/ChoboTable.xlsx
+++ b/Assets/06.Table/ChoboTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1008C6D-4383-4820-B383-B721986AC8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE63C13-1B36-44E8-BB80-573F4A459BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="235">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1043,7 +1043,56 @@
   </si>
   <si>
     <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
-"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설", "적", "고", "화", "명", "월", "후", "단", "절", "격", "창", "공"……</t>
+"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설", "적", "고", "화", "명", "월", "후", "단", "절", "격", "창", "공", "채", "피", "동"……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신수의 힘(메뉴-특수성장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신수의 힘을 통해 신력 피해를 획득하실 수 있습니다.
+사신수 레벨업에는 사신수 기운이 필요합니다.
+사신수 기운은 스테이지 요괴 처치 시 획득하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적안 마수(메뉴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적안 마수는 30초간 점수 기록이 가능합니다.
+기록된 점수가 높을 수록 더 좋은 보상을 획득 가능합니다.
+소탕권 사용 시 보상을 획득할 수 있습니다.
+소탕권은 매주 3개씩 획득할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신수 기운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신수 기운은 스테이지 요괴 처치 시 획득 가능합니다.
+획득한 재화는 사신수의 힘에서 사용하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적안 마수 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적안 마수 소탕권은 매주 3개씩 획득할 수 있습니다.
+적안 마수에서 보상을 획득하는데 사용할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신수 영약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신수 영약은 하루에 1개씩 획득하실 수 있습니다.
+영약 사용 시, 6시간 방치 보상에 해당하는
+사신수 기운을 획득할 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1451,11 +1500,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:GE108"/>
+  <dimension ref="A1:GE113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E108" sqref="E108"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2989,38 +3038,38 @@
         <v>211</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>9061</v>
       </c>
       <c r="D45" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F45" t="s">
-        <v>42</v>
-      </c>
-      <c r="G45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>9062</v>
       </c>
       <c r="D46" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="F46" t="s">
         <v>42</v>
@@ -3029,21 +3078,30 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>9063</v>
       </c>
       <c r="D47" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+      <c r="F47" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3051,10 +3109,10 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F48" t="s">
         <v>42</v>
@@ -3071,10 +3129,10 @@
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>114</v>
+        <v>221</v>
       </c>
       <c r="F49" t="s">
         <v>42</v>
@@ -3091,13 +3149,13 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3105,10 +3163,10 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>198</v>
+        <v>123</v>
       </c>
       <c r="F51" t="s">
         <v>42</v>
@@ -3125,10 +3183,10 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>206</v>
+        <v>139</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>218</v>
+        <v>114</v>
       </c>
       <c r="F52" t="s">
         <v>42</v>
@@ -3137,7 +3195,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3145,19 +3203,13 @@
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F53" t="s">
-        <v>42</v>
-      </c>
-      <c r="G53" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="99" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3165,10 +3217,10 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="F54" t="s">
         <v>42</v>
@@ -3185,10 +3237,10 @@
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>145</v>
+        <v>218</v>
       </c>
       <c r="F55" t="s">
         <v>42</v>
@@ -3205,10 +3257,10 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F56" t="s">
         <v>42</v>
@@ -3225,10 +3277,10 @@
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="F57" t="s">
         <v>42</v>
@@ -3237,7 +3289,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3245,10 +3297,10 @@
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="F58" t="s">
         <v>42</v>
@@ -3257,7 +3309,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3265,10 +3317,10 @@
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="F59" t="s">
         <v>42</v>
@@ -3277,7 +3329,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3285,10 +3337,10 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="F60" t="s">
         <v>42</v>
@@ -3297,7 +3349,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3305,10 +3357,10 @@
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="F61" t="s">
         <v>42</v>
@@ -3317,7 +3369,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3325,10 +3377,10 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>58</v>
+        <v>228</v>
       </c>
       <c r="F62" t="s">
         <v>42</v>
@@ -3337,7 +3389,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3345,10 +3397,10 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>84</v>
+        <v>219</v>
       </c>
       <c r="F63" t="s">
         <v>42</v>
@@ -3357,7 +3409,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3365,10 +3417,10 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="F64" t="s">
         <v>42</v>
@@ -3377,21 +3429,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C65" s="2">
-        <v>0</v>
-      </c>
       <c r="D65" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F65" t="s">
         <v>42</v>
@@ -3400,7 +3449,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3408,10 +3457,10 @@
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="F66" t="s">
         <v>42</v>
@@ -3420,7 +3469,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3428,10 +3477,10 @@
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>148</v>
+        <v>63</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F67" t="s">
         <v>42</v>
@@ -3440,7 +3489,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3448,10 +3497,10 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="F68" t="s">
         <v>42</v>
@@ -3460,7 +3509,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3468,10 +3517,10 @@
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="F69" t="s">
         <v>42</v>
@@ -3480,18 +3529,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C70" s="2">
+        <v>0</v>
+      </c>
       <c r="D70" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F70" t="s">
         <v>42</v>
@@ -3508,10 +3560,10 @@
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="F71" t="s">
         <v>42</v>
@@ -3520,7 +3572,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3528,10 +3580,10 @@
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F72" t="s">
         <v>42</v>
@@ -3548,10 +3600,10 @@
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="F73" t="s">
         <v>42</v>
@@ -3560,7 +3612,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3568,10 +3620,10 @@
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F74" t="s">
         <v>42</v>
@@ -3588,10 +3640,10 @@
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
         <v>42</v>
@@ -3608,10 +3660,10 @@
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="F76" t="s">
         <v>42</v>
@@ -3628,10 +3680,10 @@
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
         <v>42</v>
@@ -3640,7 +3692,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3648,10 +3700,10 @@
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="F78" t="s">
         <v>42</v>
@@ -3660,7 +3712,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3668,10 +3720,10 @@
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="F79" t="s">
         <v>42</v>
@@ -3688,10 +3740,10 @@
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F80" t="s">
         <v>42</v>
@@ -3700,7 +3752,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3708,10 +3760,10 @@
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F81" t="s">
         <v>42</v>
@@ -3728,10 +3780,10 @@
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F82" t="s">
         <v>42</v>
@@ -3748,10 +3800,10 @@
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F83" t="s">
         <v>42</v>
@@ -3768,10 +3820,10 @@
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F84" t="s">
         <v>42</v>
@@ -3780,7 +3832,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3788,10 +3840,10 @@
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="F85" t="s">
         <v>42</v>
@@ -3808,10 +3860,10 @@
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>178</v>
+        <v>62</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F86" t="s">
         <v>42</v>
@@ -3828,10 +3880,10 @@
         <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F87" t="s">
         <v>42</v>
@@ -3840,7 +3892,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3848,10 +3900,10 @@
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="F88" t="s">
         <v>42</v>
@@ -3860,7 +3912,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3868,10 +3920,10 @@
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="F89" t="s">
         <v>42</v>
@@ -3888,10 +3940,10 @@
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="F90" t="s">
         <v>42</v>
@@ -3908,10 +3960,16 @@
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>76</v>
+        <v>53</v>
+      </c>
+      <c r="F91" t="s">
+        <v>42</v>
+      </c>
+      <c r="G91" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -3922,10 +3980,10 @@
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F92" t="s">
         <v>42</v>
@@ -3934,7 +3992,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3942,10 +4000,10 @@
         <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="F93" t="s">
         <v>42</v>
@@ -3954,7 +4012,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3962,10 +4020,10 @@
         <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F94" t="s">
         <v>42</v>
@@ -3974,7 +4032,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3982,10 +4040,10 @@
         <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F95" t="s">
         <v>42</v>
@@ -4002,16 +4060,10 @@
         <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F96" t="s">
-        <v>42</v>
-      </c>
-      <c r="G96" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -4022,10 +4074,10 @@
         <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="F97" t="s">
         <v>42</v>
@@ -4042,10 +4094,10 @@
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="F98" t="s">
         <v>42</v>
@@ -4062,10 +4114,10 @@
         <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="F99" t="s">
         <v>42</v>
@@ -4074,7 +4126,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4082,10 +4134,10 @@
         <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="F100" t="s">
         <v>42</v>
@@ -4094,7 +4146,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4102,10 +4154,10 @@
         <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>197</v>
+        <v>96</v>
       </c>
       <c r="F101" t="s">
         <v>42</v>
@@ -4114,7 +4166,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4122,10 +4174,10 @@
         <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="F102" t="s">
         <v>42</v>
@@ -4134,7 +4186,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4142,10 +4194,10 @@
         <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="F103" t="s">
         <v>42</v>
@@ -4154,7 +4206,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4162,10 +4214,10 @@
         <v>7</v>
       </c>
       <c r="D104" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F104" t="s">
         <v>42</v>
@@ -4174,7 +4226,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4182,10 +4234,10 @@
         <v>7</v>
       </c>
       <c r="D105" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F105" t="s">
         <v>42</v>
@@ -4194,7 +4246,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4202,10 +4254,10 @@
         <v>7</v>
       </c>
       <c r="D106" t="s">
-        <v>109</v>
+        <v>194</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="F106" t="s">
         <v>42</v>
@@ -4214,18 +4266,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="D107" t="s">
-        <v>68</v>
+        <v>174</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>224</v>
+        <v>115</v>
       </c>
       <c r="F107" t="s">
         <v>42</v>
@@ -4234,23 +4286,123 @@
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" t="s">
+        <v>175</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F108" t="s">
+        <v>42</v>
+      </c>
+      <c r="G108" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" t="s">
+        <v>195</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F109" t="s">
+        <v>42</v>
+      </c>
+      <c r="G109" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" t="s">
+        <v>182</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F110" t="s">
+        <v>42</v>
+      </c>
+      <c r="G110" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" t="s">
+        <v>109</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F111" t="s">
+        <v>42</v>
+      </c>
+      <c r="G111" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D112" t="s">
+        <v>68</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F112" t="s">
+        <v>42</v>
+      </c>
+      <c r="G112" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D113" t="s">
         <v>117</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E113" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F108" t="s">
-        <v>42</v>
-      </c>
-      <c r="G108" t="s">
+      <c r="F113" t="s">
+        <v>42</v>
+      </c>
+      <c r="G113" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Assets/06.Table/ChoboTable.xlsx
+++ b/Assets/06.Table/ChoboTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE63C13-1B36-44E8-BB80-573F4A459BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BF1835-FC55-4A8C-A891-ECAF952484D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="239">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1042,11 +1042,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
-"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설", "적", "고", "화", "명", "월", "후", "단", "절", "격", "창", "공", "채", "피", "동"……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사신수의 힘(메뉴-특수성장)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1093,6 +1088,31 @@
     <t>사신수 영약은 하루에 1개씩 획득하실 수 있습니다.
 영약 사용 시, 6시간 방치 보상에 해당하는
 사신수 기운을 획득할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
+"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설", "적", "고", "화", "명", "월", "후", "단", "절", "격", "창", "공", "채", "피", "동", "멸"……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제자(메뉴-특수성장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파견을 통해 수련서를 획득하실 수 있습니다.
+제자는 게이지가 가득차면 비기를 사용합니다.
+수련서를 통해 제자의 레벨을 올려보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수련서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제자 파견 시 수련서를 획득하실 수 있습니다.
+수련서를 통해 제자 레벨을 올릴 수 있습니다.
+제자 레벨이 올라가면 더 많은 수련서를 획득 가능합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1500,11 +1520,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:GE113"/>
+  <dimension ref="A1:GE115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3049,10 +3069,10 @@
         <v>9061</v>
       </c>
       <c r="D45" t="s">
+        <v>230</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -3066,10 +3086,10 @@
         <v>9062</v>
       </c>
       <c r="D46" t="s">
+        <v>228</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="F46" t="s">
         <v>42</v>
@@ -3089,11 +3109,11 @@
         <v>9063</v>
       </c>
       <c r="D47" t="s">
+        <v>232</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="F47" t="s">
         <v>42</v>
       </c>
@@ -3101,18 +3121,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>9064</v>
       </c>
       <c r="D48" t="s">
-        <v>143</v>
+        <v>237</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>133</v>
+        <v>238</v>
       </c>
       <c r="F48" t="s">
         <v>42</v>
@@ -3121,7 +3144,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3129,10 +3152,10 @@
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>221</v>
+        <v>133</v>
       </c>
       <c r="F49" t="s">
         <v>42</v>
@@ -3141,7 +3164,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3149,13 +3172,19 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+      <c r="F50" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3163,16 +3192,10 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>140</v>
+        <v>205</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F51" t="s">
-        <v>42</v>
-      </c>
-      <c r="G51" t="s">
-        <v>42</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -3183,10 +3206,10 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F52" t="s">
         <v>42</v>
@@ -3195,7 +3218,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3203,13 +3226,19 @@
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>215</v>
+        <v>139</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="F53" t="s">
+        <v>42</v>
+      </c>
+      <c r="G53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3217,19 +3246,13 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="F54" t="s">
-        <v>42</v>
-      </c>
-      <c r="G54" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="99" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3237,10 +3260,10 @@
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="F55" t="s">
         <v>42</v>
@@ -3257,10 +3280,10 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="F56" t="s">
         <v>42</v>
@@ -3277,10 +3300,10 @@
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="F57" t="s">
         <v>42</v>
@@ -3297,10 +3320,10 @@
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="F58" t="s">
         <v>42</v>
@@ -3317,10 +3340,10 @@
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="F59" t="s">
         <v>42</v>
@@ -3337,10 +3360,10 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>224</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>104</v>
+        <v>225</v>
       </c>
       <c r="F60" t="s">
         <v>42</v>
@@ -3357,10 +3380,10 @@
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>222</v>
+        <v>144</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>223</v>
+        <v>145</v>
       </c>
       <c r="F61" t="s">
         <v>42</v>
@@ -3369,7 +3392,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3377,10 +3400,10 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>227</v>
+        <v>86</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>228</v>
+        <v>104</v>
       </c>
       <c r="F62" t="s">
         <v>42</v>
@@ -3389,7 +3412,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3397,10 +3420,10 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F63" t="s">
         <v>42</v>
@@ -3409,7 +3432,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3417,10 +3440,10 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>146</v>
+        <v>226</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="F64" t="s">
         <v>42</v>
@@ -3429,7 +3452,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3437,10 +3460,10 @@
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>83</v>
+        <v>219</v>
       </c>
       <c r="F65" t="s">
         <v>42</v>
@@ -3457,10 +3480,10 @@
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="F66" t="s">
         <v>42</v>
@@ -3469,7 +3492,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3477,10 +3500,10 @@
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="F67" t="s">
         <v>42</v>
@@ -3489,7 +3512,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3497,10 +3520,10 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F68" t="s">
         <v>42</v>
@@ -3509,7 +3532,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3517,10 +3540,10 @@
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="F69" t="s">
         <v>42</v>
@@ -3529,21 +3552,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C70" s="2">
-        <v>0</v>
-      </c>
       <c r="D70" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F70" t="s">
         <v>42</v>
@@ -3552,7 +3572,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3560,10 +3580,10 @@
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="F71" t="s">
         <v>42</v>
@@ -3579,11 +3599,14 @@
       <c r="B72" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C72" s="2">
+        <v>0</v>
+      </c>
       <c r="D72" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F72" t="s">
         <v>42</v>
@@ -3600,10 +3623,10 @@
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="F73" t="s">
         <v>42</v>
@@ -3612,7 +3635,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3620,10 +3643,10 @@
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F74" t="s">
         <v>42</v>
@@ -3632,7 +3655,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3640,10 +3663,10 @@
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="F75" t="s">
         <v>42</v>
@@ -3652,7 +3675,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3660,10 +3683,10 @@
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="F76" t="s">
         <v>42</v>
@@ -3680,10 +3703,10 @@
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
         <v>42</v>
@@ -3700,10 +3723,10 @@
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="F78" t="s">
         <v>42</v>
@@ -3712,7 +3735,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3720,10 +3743,10 @@
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
         <v>42</v>
@@ -3732,7 +3755,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3740,10 +3763,10 @@
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="F80" t="s">
         <v>42</v>
@@ -3760,10 +3783,10 @@
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="F81" t="s">
         <v>42</v>
@@ -3780,10 +3803,10 @@
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F82" t="s">
         <v>42</v>
@@ -3792,7 +3815,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3800,10 +3823,10 @@
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F83" t="s">
         <v>42</v>
@@ -3820,10 +3843,10 @@
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F84" t="s">
         <v>42</v>
@@ -3840,10 +3863,10 @@
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F85" t="s">
         <v>42</v>
@@ -3860,10 +3883,10 @@
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F86" t="s">
         <v>42</v>
@@ -3880,10 +3903,10 @@
         <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F87" t="s">
         <v>42</v>
@@ -3900,10 +3923,10 @@
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>157</v>
+        <v>62</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F88" t="s">
         <v>42</v>
@@ -3920,10 +3943,10 @@
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F89" t="s">
         <v>42</v>
@@ -3932,7 +3955,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3940,10 +3963,10 @@
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="F90" t="s">
         <v>42</v>
@@ -3960,10 +3983,10 @@
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F91" t="s">
         <v>42</v>
@@ -3972,7 +3995,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3980,10 +4003,10 @@
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="F92" t="s">
         <v>42</v>
@@ -3992,7 +4015,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4000,10 +4023,10 @@
         <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="F93" t="s">
         <v>42</v>
@@ -4012,7 +4035,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4020,10 +4043,10 @@
         <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="F94" t="s">
         <v>42</v>
@@ -4032,7 +4055,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4040,10 +4063,10 @@
         <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="F95" t="s">
         <v>42</v>
@@ -4052,7 +4075,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4060,13 +4083,19 @@
         <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="F96" t="s">
+        <v>42</v>
+      </c>
+      <c r="G96" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4074,10 +4103,10 @@
         <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="F97" t="s">
         <v>42</v>
@@ -4094,19 +4123,13 @@
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F98" t="s">
-        <v>42</v>
-      </c>
-      <c r="G98" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4114,10 +4137,10 @@
         <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="F99" t="s">
         <v>42</v>
@@ -4134,10 +4157,10 @@
         <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="F100" t="s">
         <v>42</v>
@@ -4146,7 +4169,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4154,10 +4177,10 @@
         <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F101" t="s">
         <v>42</v>
@@ -4174,10 +4197,10 @@
         <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="F102" t="s">
         <v>42</v>
@@ -4194,10 +4217,10 @@
         <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F103" t="s">
         <v>42</v>
@@ -4206,7 +4229,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4214,10 +4237,10 @@
         <v>7</v>
       </c>
       <c r="D104" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="F104" t="s">
         <v>42</v>
@@ -4226,7 +4249,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4234,10 +4257,10 @@
         <v>7</v>
       </c>
       <c r="D105" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="F105" t="s">
         <v>42</v>
@@ -4246,7 +4269,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4254,10 +4277,10 @@
         <v>7</v>
       </c>
       <c r="D106" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F106" t="s">
         <v>42</v>
@@ -4274,10 +4297,10 @@
         <v>7</v>
       </c>
       <c r="D107" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F107" t="s">
         <v>42</v>
@@ -4286,7 +4309,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4294,10 +4317,10 @@
         <v>7</v>
       </c>
       <c r="D108" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>134</v>
+        <v>197</v>
       </c>
       <c r="F108" t="s">
         <v>42</v>
@@ -4306,7 +4329,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4314,10 +4337,10 @@
         <v>7</v>
       </c>
       <c r="D109" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="F109" t="s">
         <v>42</v>
@@ -4326,7 +4349,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4334,10 +4357,10 @@
         <v>7</v>
       </c>
       <c r="D110" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="F110" t="s">
         <v>42</v>
@@ -4354,10 +4377,10 @@
         <v>7</v>
       </c>
       <c r="D111" t="s">
-        <v>109</v>
+        <v>195</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>108</v>
+        <v>196</v>
       </c>
       <c r="F111" t="s">
         <v>42</v>
@@ -4366,18 +4389,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>68</v>
+        <v>182</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>224</v>
+        <v>101</v>
       </c>
       <c r="F112" t="s">
         <v>42</v>
@@ -4386,23 +4409,63 @@
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" t="s">
+        <v>109</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F113" t="s">
+        <v>42</v>
+      </c>
+      <c r="G113" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D114" t="s">
+        <v>68</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F114" t="s">
+        <v>42</v>
+      </c>
+      <c r="G114" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D115" t="s">
         <v>117</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="E115" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F113" t="s">
-        <v>42</v>
-      </c>
-      <c r="G113" t="s">
+      <c r="F115" t="s">
+        <v>42</v>
+      </c>
+      <c r="G115" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Assets/06.Table/ChoboTable.xlsx
+++ b/Assets/06.Table/ChoboTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BF1835-FC55-4A8C-A891-ECAF952484D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009D251E-D2AC-44B6-BD06-E5664601BE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChoboTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="241">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,13 +332,6 @@
   </si>
   <si>
     <t>여우구슬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지를 클리어 하거나, 일일미션, 칭호등에서
-보상으로 받을 수 있는 재화 입니다.
-외형 옵션을 재설정 하거나,고양이 요괴전 소탕권을
-교환하는데 주로 사용 됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1091,11 +1084,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
-"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설", "적", "고", "화", "명", "월", "후", "단", "절", "격", "창", "공", "채", "피", "동", "멸"……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>제자(메뉴-특수성장)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1113,6 +1101,27 @@
     <t>제자 파견 시 수련서를 획득하실 수 있습니다.
 수련서를 통해 제자 레벨을 올릴 수 있습니다.
 제자 레벨이 올라가면 더 많은 수련서를 획득 가능합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
+"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설", "적", "고", "화", "명", "월", "후", "단", "절", "격", "창", "공", "채", "피", "동", "멸", "향"……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적(메뉴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지를 클리어 하거나, 일일미션, 업적등에서
+보상으로 받을 수 있는 재화 입니다.
+외형 옵션을 재설정 하거나,고양이 요괴전 소탕권을
+교환하는데 주로 사용 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 조건을 달성하면 재화 및 능력치를 획득할 수 있습니다.
+특수한 조건을 달성하면 특수 업적에서 능력치를 획득할 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1520,11 +1529,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:GE115"/>
+  <dimension ref="A1:GE116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1776,7 +1785,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>70</v>
+        <v>239</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -2205,7 +2214,7 @@
         <v>69</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
         <v>42</v>
@@ -2524,10 +2533,10 @@
         <v>9023</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
         <v>42</v>
@@ -2547,10 +2556,10 @@
         <v>9016</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21" t="s">
         <v>42</v>
@@ -2570,10 +2579,10 @@
         <v>9017</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F22" t="s">
         <v>42</v>
@@ -2593,10 +2602,10 @@
         <v>9026</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F23" t="s">
         <v>42</v>
@@ -2616,10 +2625,10 @@
         <v>9027</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F24" t="s">
         <v>42</v>
@@ -2639,10 +2648,10 @@
         <v>9028</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F25" t="s">
         <v>42</v>
@@ -2662,10 +2671,10 @@
         <v>9032</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F26" t="s">
         <v>42</v>
@@ -2685,10 +2694,10 @@
         <v>9033</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F27" t="s">
         <v>42</v>
@@ -2708,10 +2717,10 @@
         <v>9037</v>
       </c>
       <c r="D28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F28" t="s">
         <v>42</v>
@@ -2731,10 +2740,10 @@
         <v>9038</v>
       </c>
       <c r="D29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="F29" t="s">
         <v>42</v>
@@ -2754,10 +2763,10 @@
         <v>9040</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F30" t="s">
         <v>42</v>
@@ -2777,10 +2786,10 @@
         <v>9041</v>
       </c>
       <c r="D31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F31" t="s">
         <v>42</v>
@@ -2800,10 +2809,10 @@
         <v>9043</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F32" t="s">
         <v>42</v>
@@ -2823,10 +2832,10 @@
         <v>9044</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F33" t="s">
         <v>42</v>
@@ -2846,10 +2855,10 @@
         <v>9045</v>
       </c>
       <c r="D34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F34" t="s">
         <v>42</v>
@@ -2869,10 +2878,10 @@
         <v>9046</v>
       </c>
       <c r="D35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="F35" t="s">
         <v>42</v>
@@ -2892,10 +2901,10 @@
         <v>9048</v>
       </c>
       <c r="D36" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F36" t="s">
         <v>42</v>
@@ -2915,10 +2924,10 @@
         <v>9049</v>
       </c>
       <c r="D37" t="s">
+        <v>189</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="F37" t="s">
         <v>42</v>
@@ -2938,10 +2947,10 @@
         <v>9050</v>
       </c>
       <c r="D38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F38" t="s">
         <v>42</v>
@@ -2961,10 +2970,10 @@
         <v>9052</v>
       </c>
       <c r="D39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2978,10 +2987,10 @@
         <v>9053</v>
       </c>
       <c r="D40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F40" t="s">
         <v>42</v>
@@ -3001,10 +3010,10 @@
         <v>9054</v>
       </c>
       <c r="D41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -3018,10 +3027,10 @@
         <v>9055</v>
       </c>
       <c r="D42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -3035,10 +3044,10 @@
         <v>9056</v>
       </c>
       <c r="D43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -3052,10 +3061,10 @@
         <v>9057</v>
       </c>
       <c r="D44" t="s">
+        <v>209</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -3069,10 +3078,10 @@
         <v>9061</v>
       </c>
       <c r="D45" t="s">
+        <v>229</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -3086,10 +3095,10 @@
         <v>9062</v>
       </c>
       <c r="D46" t="s">
+        <v>227</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="F46" t="s">
         <v>42</v>
@@ -3109,10 +3118,10 @@
         <v>9063</v>
       </c>
       <c r="D47" t="s">
+        <v>231</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="F47" t="s">
         <v>42</v>
@@ -3132,10 +3141,10 @@
         <v>9064</v>
       </c>
       <c r="D48" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F48" t="s">
         <v>42</v>
@@ -3152,10 +3161,10 @@
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F49" t="s">
         <v>42</v>
@@ -3172,10 +3181,10 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F50" t="s">
         <v>42</v>
@@ -3192,10 +3201,10 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -3206,10 +3215,10 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F52" t="s">
         <v>42</v>
@@ -3226,10 +3235,10 @@
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F53" t="s">
         <v>42</v>
@@ -3246,10 +3255,10 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="99" x14ac:dyDescent="0.3">
@@ -3260,10 +3269,10 @@
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F55" t="s">
         <v>42</v>
@@ -3280,10 +3289,10 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F56" t="s">
         <v>42</v>
@@ -3300,10 +3309,10 @@
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F57" t="s">
         <v>42</v>
@@ -3320,10 +3329,10 @@
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F58" t="s">
         <v>42</v>
@@ -3340,10 +3349,10 @@
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F59" t="s">
         <v>42</v>
@@ -3360,11 +3369,11 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
+        <v>223</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="F60" t="s">
         <v>42</v>
       </c>
@@ -3372,7 +3381,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3380,10 +3389,10 @@
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>144</v>
+        <v>238</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>145</v>
+        <v>240</v>
       </c>
       <c r="F61" t="s">
         <v>42</v>
@@ -3400,10 +3409,10 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="F62" t="s">
         <v>42</v>
@@ -3420,10 +3429,10 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>222</v>
+        <v>85</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>223</v>
+        <v>103</v>
       </c>
       <c r="F63" t="s">
         <v>42</v>
@@ -3432,7 +3441,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3440,10 +3449,10 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F64" t="s">
         <v>42</v>
@@ -3452,7 +3461,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3460,10 +3469,10 @@
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="F65" t="s">
         <v>42</v>
@@ -3472,7 +3481,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3480,10 +3489,10 @@
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>57</v>
+        <v>218</v>
       </c>
       <c r="F66" t="s">
         <v>42</v>
@@ -3500,10 +3509,10 @@
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="F67" t="s">
         <v>42</v>
@@ -3520,10 +3529,10 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F68" t="s">
         <v>42</v>
@@ -3532,7 +3541,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3540,10 +3549,10 @@
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F69" t="s">
         <v>42</v>
@@ -3552,7 +3561,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3560,10 +3569,10 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="F70" t="s">
         <v>42</v>
@@ -3580,10 +3589,10 @@
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F71" t="s">
         <v>42</v>
@@ -3592,21 +3601,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C72" s="2">
-        <v>0</v>
-      </c>
       <c r="D72" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="F72" t="s">
         <v>42</v>
@@ -3622,11 +3628,14 @@
       <c r="B73" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C73" s="2">
+        <v>0</v>
+      </c>
       <c r="D73" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="F73" t="s">
         <v>42</v>
@@ -3643,10 +3652,10 @@
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F74" t="s">
         <v>42</v>
@@ -3663,10 +3672,10 @@
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="F75" t="s">
         <v>42</v>
@@ -3675,7 +3684,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3683,10 +3692,10 @@
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F76" t="s">
         <v>42</v>
@@ -3703,10 +3712,10 @@
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F77" t="s">
         <v>42</v>
@@ -3715,7 +3724,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3723,10 +3732,10 @@
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
         <v>42</v>
@@ -3735,7 +3744,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3743,10 +3752,10 @@
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="F79" t="s">
         <v>42</v>
@@ -3755,7 +3764,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3763,10 +3772,10 @@
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
         <v>42</v>
@@ -3783,10 +3792,10 @@
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F81" t="s">
         <v>42</v>
@@ -3795,7 +3804,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3803,10 +3812,10 @@
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F82" t="s">
         <v>42</v>
@@ -3815,7 +3824,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3823,10 +3832,10 @@
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F83" t="s">
         <v>42</v>
@@ -3835,7 +3844,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3843,10 +3852,10 @@
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F84" t="s">
         <v>42</v>
@@ -3863,10 +3872,10 @@
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F85" t="s">
         <v>42</v>
@@ -3883,10 +3892,10 @@
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F86" t="s">
         <v>42</v>
@@ -3903,10 +3912,10 @@
         <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F87" t="s">
         <v>42</v>
@@ -3923,10 +3932,10 @@
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F88" t="s">
         <v>42</v>
@@ -3943,10 +3952,10 @@
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F89" t="s">
         <v>42</v>
@@ -3963,10 +3972,10 @@
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F90" t="s">
         <v>42</v>
@@ -3983,10 +3992,10 @@
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F91" t="s">
         <v>42</v>
@@ -3995,7 +4004,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4006,7 +4015,7 @@
         <v>158</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="F92" t="s">
         <v>42</v>
@@ -4015,7 +4024,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4023,10 +4032,10 @@
         <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="F93" t="s">
         <v>42</v>
@@ -4043,10 +4052,10 @@
         <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F94" t="s">
         <v>42</v>
@@ -4055,7 +4064,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4063,10 +4072,10 @@
         <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="F95" t="s">
         <v>42</v>
@@ -4075,7 +4084,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4083,10 +4092,10 @@
         <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F96" t="s">
         <v>42</v>
@@ -4103,10 +4112,10 @@
         <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="F97" t="s">
         <v>42</v>
@@ -4115,7 +4124,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4123,10 +4132,16 @@
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>76</v>
+        <v>127</v>
+      </c>
+      <c r="F98" t="s">
+        <v>42</v>
+      </c>
+      <c r="G98" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -4137,16 +4152,10 @@
         <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F99" t="s">
-        <v>42</v>
-      </c>
-      <c r="G99" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -4157,10 +4166,10 @@
         <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="F100" t="s">
         <v>42</v>
@@ -4169,7 +4178,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4177,10 +4186,10 @@
         <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="F101" t="s">
         <v>42</v>
@@ -4189,7 +4198,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4197,10 +4206,10 @@
         <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="F102" t="s">
         <v>42</v>
@@ -4217,10 +4226,10 @@
         <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="F103" t="s">
         <v>42</v>
@@ -4237,10 +4246,10 @@
         <v>7</v>
       </c>
       <c r="D104" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F104" t="s">
         <v>42</v>
@@ -4257,10 +4266,10 @@
         <v>7</v>
       </c>
       <c r="D105" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F105" t="s">
         <v>42</v>
@@ -4269,7 +4278,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4277,10 +4286,10 @@
         <v>7</v>
       </c>
       <c r="D106" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="F106" t="s">
         <v>42</v>
@@ -4289,7 +4298,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4297,10 +4306,10 @@
         <v>7</v>
       </c>
       <c r="D107" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="F107" t="s">
         <v>42</v>
@@ -4309,7 +4318,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4317,10 +4326,10 @@
         <v>7</v>
       </c>
       <c r="D108" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="F108" t="s">
         <v>42</v>
@@ -4329,7 +4338,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4337,10 +4346,10 @@
         <v>7</v>
       </c>
       <c r="D109" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c r="F109" t="s">
         <v>42</v>
@@ -4357,10 +4366,10 @@
         <v>7</v>
       </c>
       <c r="D110" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="F110" t="s">
         <v>42</v>
@@ -4369,7 +4378,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4377,10 +4386,10 @@
         <v>7</v>
       </c>
       <c r="D111" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>196</v>
+        <v>133</v>
       </c>
       <c r="F111" t="s">
         <v>42</v>
@@ -4397,10 +4406,10 @@
         <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>101</v>
+        <v>195</v>
       </c>
       <c r="F112" t="s">
         <v>42</v>
@@ -4417,10 +4426,10 @@
         <v>7</v>
       </c>
       <c r="D113" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F113" t="s">
         <v>42</v>
@@ -4429,18 +4438,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="D114" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>234</v>
+        <v>107</v>
       </c>
       <c r="F114" t="s">
         <v>42</v>
@@ -4449,7 +4458,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -4457,15 +4466,35 @@
         <v>67</v>
       </c>
       <c r="D115" t="s">
+        <v>68</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F115" t="s">
+        <v>42</v>
+      </c>
+      <c r="G115" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D116" t="s">
+        <v>116</v>
+      </c>
+      <c r="E116" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E115" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F115" t="s">
-        <v>42</v>
-      </c>
-      <c r="G115" t="s">
+      <c r="F116" t="s">
+        <v>42</v>
+      </c>
+      <c r="G116" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Assets/06.Table/ChoboTable.xlsx
+++ b/Assets/06.Table/ChoboTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009D251E-D2AC-44B6-BD06-E5664601BE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FFC722-D834-4DE2-82FE-CEA83573F5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChoboTable" sheetId="1" r:id="rId1"/>
@@ -1104,11 +1104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
-"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설", "적", "고", "화", "명", "월", "후", "단", "절", "격", "창", "공", "채", "피", "동", "멸", "향"……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>업적(메뉴)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1122,6 +1117,11 @@
   <si>
     <t>특정 조건을 달성하면 재화 및 능력치를 획득할 수 있습니다.
 특수한 조건을 달성하면 특수 업적에서 능력치를 획득할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
+"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설", "적", "고", "화", "명", "월", "후", "단", "절", "격", "창", "공", "채", "피", "동", "멸", "향", "증", "쾌"……</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1533,7 +1533,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A116" sqref="A116"/>
+      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1785,7 +1785,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -3389,10 +3389,10 @@
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F61" t="s">
         <v>42</v>
@@ -4458,7 +4458,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>68</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F115" t="s">
         <v>42</v>

--- a/Assets/06.Table/ChoboTable.xlsx
+++ b/Assets/06.Table/ChoboTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FFC722-D834-4DE2-82FE-CEA83573F5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB50B47D-C74E-448C-9AE2-140985A8C00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChoboTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="249">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1121,7 +1121,41 @@
   </si>
   <si>
     <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
-"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설", "적", "고", "화", "명", "월", "후", "단", "절", "격", "창", "공", "채", "피", "동", "멸", "향", "증", "쾌"……</t>
+"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설", "적", "고", "화", "명", "월", "후", "단", "절", "격", "창", "공", "채", "피", "동", "멸", "향", "증", "쾌", "우", "팽"……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인계(요괴사냥-삼천세계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁(요괴사냥-삼천세계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락(요괴사냥-삼천세계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무림고수(요괴사냥-보스도전)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러가지 컨텐츠를 클리어해 극락베기 효과를 얻으실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러가지 컨텐츠를 클리어해 무림베기 효과를 얻으실 수 있습니다.
+일반 보스를 처치하여 무림 구슬 및 특수 무기를 획득하실 수 있습니다.
+어려움 보스를 처치하여 무림 구슬 및 외형을 획득하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러가지 컨텐츠를 클리어해 해신베기 효과를 얻으실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러가지 컨텐츠를 클리어해 용베기 효과를 얻으실 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1233,9 +1267,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1273,7 +1307,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1379,7 +1413,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1521,7 +1555,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1529,11 +1563,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:GE116"/>
+  <dimension ref="A1:GE120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4446,10 +4480,10 @@
         <v>7</v>
       </c>
       <c r="D114" t="s">
-        <v>108</v>
+        <v>241</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
       <c r="F114" t="s">
         <v>42</v>
@@ -4458,18 +4492,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="D115" t="s">
-        <v>68</v>
+        <v>242</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F115" t="s">
         <v>42</v>
@@ -4483,18 +4517,98 @@
         <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" t="s">
+        <v>244</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F116" t="s">
+        <v>42</v>
+      </c>
+      <c r="G116" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" t="s">
+        <v>243</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F117" t="s">
+        <v>42</v>
+      </c>
+      <c r="G117" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" t="s">
+        <v>108</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F118" t="s">
+        <v>42</v>
+      </c>
+      <c r="G118" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D119" t="s">
+        <v>68</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F119" t="s">
+        <v>42</v>
+      </c>
+      <c r="G119" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D120" t="s">
         <v>116</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E120" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F116" t="s">
-        <v>42</v>
-      </c>
-      <c r="G116" t="s">
+      <c r="F120" t="s">
+        <v>42</v>
+      </c>
+      <c r="G120" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Assets/06.Table/ChoboTable.xlsx
+++ b/Assets/06.Table/ChoboTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB50B47D-C74E-448C-9AE2-140985A8C00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C87B79D-1B1C-4795-8FE1-A9D8CD0B86FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChoboTable" sheetId="1" r:id="rId1"/>
@@ -1120,11 +1120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
-"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설", "적", "고", "화", "명", "월", "후", "단", "절", "격", "창", "공", "채", "피", "동", "멸", "향", "증", "쾌", "우", "팽"……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>용인계(요괴사냥-삼천세계)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1156,6 +1151,11 @@
   </si>
   <si>
     <t>여러가지 컨텐츠를 클리어해 용베기 효과를 얻으실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
+"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설", "적", "고", "화", "명", "월", "후", "단", "절", "격", "창", "공", "채", "피", "동", "멸", "향", "증", "쾌", "우", "팽", "관", "한"……</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1567,7 +1567,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F113" sqref="F113"/>
+      <selection pane="bottomLeft" activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4480,10 +4480,10 @@
         <v>7</v>
       </c>
       <c r="D114" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F114" t="s">
         <v>42</v>
@@ -4500,10 +4500,10 @@
         <v>7</v>
       </c>
       <c r="D115" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F115" t="s">
         <v>42</v>
@@ -4520,10 +4520,10 @@
         <v>7</v>
       </c>
       <c r="D116" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F116" t="s">
         <v>42</v>
@@ -4540,10 +4540,10 @@
         <v>7</v>
       </c>
       <c r="D117" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F117" t="s">
         <v>42</v>
@@ -4583,7 +4583,7 @@
         <v>68</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F119" t="s">
         <v>42</v>

--- a/Assets/06.Table/ChoboTable.xlsx
+++ b/Assets/06.Table/ChoboTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C87B79D-1B1C-4795-8FE1-A9D8CD0B86FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAD012F-73D6-4153-83B5-9B2CC7672950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="253">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -935,10 +935,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비무대회(메뉴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>여우 정수(메뉴-특수성장)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1156,6 +1152,30 @@
   <si>
     <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
 "만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설", "적", "고", "화", "명", "월", "후", "단", "절", "격", "창", "공", "채", "피", "동", "멸", "향", "증", "쾌", "우", "팽", "관", "한"……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비무 대회(메뉴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별 임무(메뉴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별 임무에서는 도전 목표에 따라 별을 획득할 수 있습니다.
+보스 클리어 및 별 획득 시 보상을 획득할 수 있습니다.
+일정 숫자의 별을 획득하면 특별 보상을 획득할 수 있습니다.
+상점에서 획득한 증표를 다른 재화로 교환 가능합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별 임무에서 보스 클리어 시 획득할 수 있는 재화입니다.
+상점에서 다양한 재화로 교환이 가능합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임무 증표</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1563,11 +1583,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:GE120"/>
+  <dimension ref="A1:GE122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E119" sqref="E119"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1819,7 +1839,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -2892,7 +2912,7 @@
         <v>135</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F34" t="s">
         <v>42</v>
@@ -3044,10 +3064,10 @@
         <v>9054</v>
       </c>
       <c r="D41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -3061,10 +3081,10 @@
         <v>9055</v>
       </c>
       <c r="D42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -3078,10 +3098,10 @@
         <v>9056</v>
       </c>
       <c r="D43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -3095,10 +3115,10 @@
         <v>9057</v>
       </c>
       <c r="D44" t="s">
+        <v>208</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -3112,10 +3132,10 @@
         <v>9061</v>
       </c>
       <c r="D45" t="s">
+        <v>228</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -3129,10 +3149,10 @@
         <v>9062</v>
       </c>
       <c r="D46" t="s">
+        <v>226</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="F46" t="s">
         <v>42</v>
@@ -3152,10 +3172,10 @@
         <v>9063</v>
       </c>
       <c r="D47" t="s">
+        <v>230</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="F47" t="s">
         <v>42</v>
@@ -3175,11 +3195,11 @@
         <v>9064</v>
       </c>
       <c r="D48" t="s">
+        <v>234</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="F48" t="s">
         <v>42</v>
       </c>
@@ -3187,18 +3207,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>9067</v>
       </c>
       <c r="D49" t="s">
-        <v>142</v>
+        <v>252</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>132</v>
+        <v>251</v>
       </c>
       <c r="F49" t="s">
         <v>42</v>
@@ -3207,7 +3230,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3215,10 +3238,10 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>220</v>
+        <v>132</v>
       </c>
       <c r="F50" t="s">
         <v>42</v>
@@ -3227,7 +3250,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3235,13 +3258,19 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+      <c r="F51" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3249,16 +3278,10 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F52" t="s">
-        <v>42</v>
-      </c>
-      <c r="G52" t="s">
-        <v>42</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -3269,10 +3292,10 @@
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F53" t="s">
         <v>42</v>
@@ -3281,7 +3304,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3289,13 +3312,19 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="F54" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3303,19 +3332,13 @@
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F55" t="s">
-        <v>42</v>
-      </c>
-      <c r="G55" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="99" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3323,10 +3346,10 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="F56" t="s">
         <v>42</v>
@@ -3343,10 +3366,10 @@
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>141</v>
+        <v>204</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>93</v>
+        <v>216</v>
       </c>
       <c r="F57" t="s">
         <v>42</v>
@@ -3363,10 +3386,10 @@
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>233</v>
+        <v>141</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>234</v>
+        <v>93</v>
       </c>
       <c r="F58" t="s">
         <v>42</v>
@@ -3383,10 +3406,10 @@
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="F59" t="s">
         <v>42</v>
@@ -3403,10 +3426,10 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="F60" t="s">
         <v>42</v>
@@ -3415,7 +3438,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3423,10 +3446,10 @@
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="F61" t="s">
         <v>42</v>
@@ -3435,7 +3458,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3443,10 +3466,10 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>143</v>
+        <v>236</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>144</v>
+        <v>238</v>
       </c>
       <c r="F62" t="s">
         <v>42</v>
@@ -3463,10 +3486,10 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="F63" t="s">
         <v>42</v>
@@ -3483,10 +3506,10 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>221</v>
+        <v>85</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>222</v>
+        <v>103</v>
       </c>
       <c r="F64" t="s">
         <v>42</v>
@@ -3495,7 +3518,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3503,10 +3526,10 @@
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F65" t="s">
         <v>42</v>
@@ -3515,7 +3538,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3523,10 +3546,10 @@
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F66" t="s">
         <v>42</v>
@@ -3535,7 +3558,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3543,10 +3566,10 @@
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>145</v>
+        <v>249</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>57</v>
+        <v>250</v>
       </c>
       <c r="F67" t="s">
         <v>42</v>
@@ -3555,7 +3578,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3563,10 +3586,10 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="F68" t="s">
         <v>42</v>
@@ -3583,10 +3606,10 @@
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="F69" t="s">
         <v>42</v>
@@ -3595,7 +3618,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3603,10 +3626,10 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="F70" t="s">
         <v>42</v>
@@ -3615,7 +3638,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3623,10 +3646,10 @@
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F71" t="s">
         <v>42</v>
@@ -3635,7 +3658,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3643,10 +3666,10 @@
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="F72" t="s">
         <v>42</v>
@@ -3655,21 +3678,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="2">
-        <v>0</v>
-      </c>
       <c r="D73" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F73" t="s">
         <v>42</v>
@@ -3678,7 +3698,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3686,10 +3706,10 @@
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="F74" t="s">
         <v>42</v>
@@ -3705,11 +3725,14 @@
       <c r="B75" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C75" s="2">
+        <v>0</v>
+      </c>
       <c r="D75" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F75" t="s">
         <v>42</v>
@@ -3726,10 +3749,10 @@
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="F76" t="s">
         <v>42</v>
@@ -3738,7 +3761,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3746,10 +3769,10 @@
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F77" t="s">
         <v>42</v>
@@ -3758,7 +3781,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3766,10 +3789,10 @@
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="F78" t="s">
         <v>42</v>
@@ -3778,7 +3801,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3786,10 +3809,10 @@
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="F79" t="s">
         <v>42</v>
@@ -3806,10 +3829,10 @@
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
         <v>42</v>
@@ -3826,10 +3849,10 @@
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="F81" t="s">
         <v>42</v>
@@ -3838,7 +3861,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3846,10 +3869,10 @@
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
         <v>42</v>
@@ -3858,7 +3881,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3866,10 +3889,10 @@
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="F83" t="s">
         <v>42</v>
@@ -3886,10 +3909,10 @@
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="F84" t="s">
         <v>42</v>
@@ -3906,10 +3929,10 @@
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F85" t="s">
         <v>42</v>
@@ -3918,7 +3941,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3926,10 +3949,10 @@
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F86" t="s">
         <v>42</v>
@@ -3946,10 +3969,10 @@
         <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F87" t="s">
         <v>42</v>
@@ -3966,10 +3989,10 @@
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F88" t="s">
         <v>42</v>
@@ -3986,10 +4009,10 @@
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F89" t="s">
         <v>42</v>
@@ -4006,10 +4029,10 @@
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F90" t="s">
         <v>42</v>
@@ -4026,10 +4049,10 @@
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F91" t="s">
         <v>42</v>
@@ -4046,10 +4069,10 @@
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F92" t="s">
         <v>42</v>
@@ -4058,7 +4081,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4066,10 +4089,10 @@
         <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="F93" t="s">
         <v>42</v>
@@ -4086,10 +4109,10 @@
         <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F94" t="s">
         <v>42</v>
@@ -4098,7 +4121,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4106,10 +4129,10 @@
         <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="F95" t="s">
         <v>42</v>
@@ -4118,7 +4141,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4126,10 +4149,10 @@
         <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="F96" t="s">
         <v>42</v>
@@ -4138,7 +4161,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4146,10 +4169,10 @@
         <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="F97" t="s">
         <v>42</v>
@@ -4158,7 +4181,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4166,10 +4189,10 @@
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="F98" t="s">
         <v>42</v>
@@ -4178,7 +4201,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4186,13 +4209,19 @@
         <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="F99" t="s">
+        <v>42</v>
+      </c>
+      <c r="G99" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4200,10 +4229,10 @@
         <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="F100" t="s">
         <v>42</v>
@@ -4220,19 +4249,13 @@
         <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F101" t="s">
-        <v>42</v>
-      </c>
-      <c r="G101" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4240,10 +4263,10 @@
         <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="F102" t="s">
         <v>42</v>
@@ -4260,10 +4283,10 @@
         <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="F103" t="s">
         <v>42</v>
@@ -4272,7 +4295,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4280,10 +4303,10 @@
         <v>7</v>
       </c>
       <c r="D104" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F104" t="s">
         <v>42</v>
@@ -4300,10 +4323,10 @@
         <v>7</v>
       </c>
       <c r="D105" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="F105" t="s">
         <v>42</v>
@@ -4320,10 +4343,10 @@
         <v>7</v>
       </c>
       <c r="D106" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F106" t="s">
         <v>42</v>
@@ -4332,7 +4355,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4340,10 +4363,10 @@
         <v>7</v>
       </c>
       <c r="D107" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="F107" t="s">
         <v>42</v>
@@ -4352,7 +4375,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4360,10 +4383,10 @@
         <v>7</v>
       </c>
       <c r="D108" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="F108" t="s">
         <v>42</v>
@@ -4372,7 +4395,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4380,10 +4403,10 @@
         <v>7</v>
       </c>
       <c r="D109" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="F109" t="s">
         <v>42</v>
@@ -4400,10 +4423,10 @@
         <v>7</v>
       </c>
       <c r="D110" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F110" t="s">
         <v>42</v>
@@ -4412,7 +4435,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4420,10 +4443,10 @@
         <v>7</v>
       </c>
       <c r="D111" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>133</v>
+        <v>196</v>
       </c>
       <c r="F111" t="s">
         <v>42</v>
@@ -4432,7 +4455,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4440,10 +4463,10 @@
         <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>195</v>
+        <v>114</v>
       </c>
       <c r="F112" t="s">
         <v>42</v>
@@ -4452,7 +4475,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -4460,10 +4483,10 @@
         <v>7</v>
       </c>
       <c r="D113" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="F113" t="s">
         <v>42</v>
@@ -4480,10 +4503,10 @@
         <v>7</v>
       </c>
       <c r="D114" t="s">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="F114" t="s">
         <v>42</v>
@@ -4500,10 +4523,10 @@
         <v>7</v>
       </c>
       <c r="D115" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>246</v>
+        <v>100</v>
       </c>
       <c r="F115" t="s">
         <v>42</v>
@@ -4512,7 +4535,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -4520,10 +4543,10 @@
         <v>7</v>
       </c>
       <c r="D116" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F116" t="s">
         <v>42</v>
@@ -4540,10 +4563,10 @@
         <v>7</v>
       </c>
       <c r="D117" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F117" t="s">
         <v>42</v>
@@ -4552,7 +4575,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -4560,10 +4583,10 @@
         <v>7</v>
       </c>
       <c r="D118" t="s">
-        <v>108</v>
+        <v>242</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>107</v>
+        <v>244</v>
       </c>
       <c r="F118" t="s">
         <v>42</v>
@@ -4572,18 +4595,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="D119" t="s">
-        <v>68</v>
+        <v>241</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F119" t="s">
         <v>42</v>
@@ -4592,23 +4615,63 @@
         <v>42</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120" t="s">
+        <v>108</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F120" t="s">
+        <v>42</v>
+      </c>
+      <c r="G120" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D121" t="s">
+        <v>68</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F121" t="s">
+        <v>42</v>
+      </c>
+      <c r="G121" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D122" t="s">
         <v>116</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="E122" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F120" t="s">
-        <v>42</v>
-      </c>
-      <c r="G120" t="s">
+      <c r="F122" t="s">
+        <v>42</v>
+      </c>
+      <c r="G122" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Assets/06.Table/ChoboTable.xlsx
+++ b/Assets/06.Table/ChoboTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAD012F-73D6-4153-83B5-9B2CC7672950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CCC9B9-FBB2-4110-BB16-297ADF66898A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="261">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1150,11 +1150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
-"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설", "적", "고", "화", "명", "월", "후", "단", "절", "격", "창", "공", "채", "피", "동", "멸", "향", "증", "쾌", "우", "팽", "관", "한"……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비무 대회(메뉴)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1176,6 +1171,49 @@
   </si>
   <si>
     <t>임무 증표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
+"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설", "적", "고", "화", "명", "월", "후", "단", "절", "격", "창", "공", "채", "피", "동", "멸", "향", "증", "쾌", "우", "팽", "관", "한", "혈", "연", "난", "군"……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초월광산(요괴사냥-한계돌파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초월 광산 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초월 광산 소탕권은 하루에 1개씩 획득하실 수 있습니다.
+초월 광산에서 보상을 획득하는데 사용할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈의 기운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제자 혈자리 전수권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈자리 전수에서 획득할 수 있는 재화입니다.
+혈의 기운은 제자 혈자리에서 사용하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초월 광산에서는 매일 획득할 수 있는 보상이 변경됩니다.
+일요일에는 3가지 종류의 보옥을 모두 획득할 수 있습니다.
+획득한 보옥을 소모하여 보옥베기 효과를 얻으실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈자리 전수권은 하루에 2개씩 획득하실 수 있습니다.
+소탕 시 혈자리 전수 단계에 따라
+혈의 기운을 획득하실 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1583,11 +1621,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:GE122"/>
+  <dimension ref="A1:GE126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3215,13 +3253,13 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>9067</v>
+        <v>9065</v>
       </c>
       <c r="D49" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="F49" t="s">
         <v>42</v>
@@ -3230,18 +3268,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>9066</v>
       </c>
       <c r="D50" t="s">
-        <v>142</v>
+        <v>257</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>132</v>
+        <v>260</v>
       </c>
       <c r="F50" t="s">
         <v>42</v>
@@ -3250,18 +3291,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>9067</v>
       </c>
       <c r="D51" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="F51" t="s">
         <v>42</v>
@@ -3275,16 +3319,19 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>9068</v>
       </c>
       <c r="D52" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3292,10 +3339,10 @@
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="F53" t="s">
         <v>42</v>
@@ -3312,10 +3359,10 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>113</v>
+        <v>219</v>
       </c>
       <c r="F54" t="s">
         <v>42</v>
@@ -3332,13 +3379,13 @@
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3346,10 +3393,10 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>197</v>
+        <v>122</v>
       </c>
       <c r="F56" t="s">
         <v>42</v>
@@ -3366,10 +3413,10 @@
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>216</v>
+        <v>113</v>
       </c>
       <c r="F57" t="s">
         <v>42</v>
@@ -3378,7 +3425,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3386,19 +3433,13 @@
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>141</v>
+        <v>213</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F58" t="s">
-        <v>42</v>
-      </c>
-      <c r="G58" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="99" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3406,10 +3447,10 @@
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="F59" t="s">
         <v>42</v>
@@ -3426,10 +3467,10 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="F60" t="s">
         <v>42</v>
@@ -3446,10 +3487,10 @@
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>223</v>
+        <v>93</v>
       </c>
       <c r="F61" t="s">
         <v>42</v>
@@ -3458,7 +3499,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3466,10 +3507,10 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F62" t="s">
         <v>42</v>
@@ -3486,10 +3527,10 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="F63" t="s">
         <v>42</v>
@@ -3506,10 +3547,10 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>85</v>
+        <v>222</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="F64" t="s">
         <v>42</v>
@@ -3518,7 +3559,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3526,10 +3567,10 @@
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="F65" t="s">
         <v>42</v>
@@ -3538,7 +3579,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3546,10 +3587,10 @@
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>224</v>
+        <v>143</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>225</v>
+        <v>144</v>
       </c>
       <c r="F66" t="s">
         <v>42</v>
@@ -3558,7 +3599,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3566,10 +3607,10 @@
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>249</v>
+        <v>85</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>250</v>
+        <v>103</v>
       </c>
       <c r="F67" t="s">
         <v>42</v>
@@ -3578,7 +3619,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3586,10 +3627,10 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F68" t="s">
         <v>42</v>
@@ -3598,7 +3639,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3606,10 +3647,10 @@
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>145</v>
+        <v>224</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>57</v>
+        <v>225</v>
       </c>
       <c r="F69" t="s">
         <v>42</v>
@@ -3618,7 +3659,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3626,10 +3667,10 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>82</v>
+        <v>249</v>
       </c>
       <c r="F70" t="s">
         <v>42</v>
@@ -3638,7 +3679,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3646,10 +3687,10 @@
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>80</v>
+        <v>217</v>
       </c>
       <c r="F71" t="s">
         <v>42</v>
@@ -3658,7 +3699,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3666,10 +3707,10 @@
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F72" t="s">
         <v>42</v>
@@ -3678,7 +3719,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3686,10 +3727,10 @@
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F73" t="s">
         <v>42</v>
@@ -3698,7 +3739,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3706,10 +3747,10 @@
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F74" t="s">
         <v>42</v>
@@ -3718,21 +3759,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="2">
-        <v>0</v>
-      </c>
       <c r="D75" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F75" t="s">
         <v>42</v>
@@ -3741,7 +3779,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3749,10 +3787,10 @@
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F76" t="s">
         <v>42</v>
@@ -3761,7 +3799,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3769,10 +3807,10 @@
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="F77" t="s">
         <v>42</v>
@@ -3788,11 +3826,14 @@
       <c r="B78" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C78" s="2">
+        <v>0</v>
+      </c>
       <c r="D78" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="F78" t="s">
         <v>42</v>
@@ -3801,7 +3842,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3809,10 +3850,10 @@
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F79" t="s">
         <v>42</v>
@@ -3821,7 +3862,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3829,10 +3870,10 @@
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F80" t="s">
         <v>42</v>
@@ -3849,10 +3890,10 @@
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F81" t="s">
         <v>42</v>
@@ -3869,10 +3910,10 @@
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F82" t="s">
         <v>42</v>
@@ -3881,7 +3922,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3889,10 +3930,10 @@
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
         <v>42</v>
@@ -3909,10 +3950,10 @@
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="F84" t="s">
         <v>42</v>
@@ -3929,10 +3970,10 @@
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
         <v>42</v>
@@ -3949,10 +3990,10 @@
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F86" t="s">
         <v>42</v>
@@ -3961,7 +4002,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3969,10 +4010,10 @@
         <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F87" t="s">
         <v>42</v>
@@ -3989,10 +4030,10 @@
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F88" t="s">
         <v>42</v>
@@ -4001,7 +4042,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4009,10 +4050,10 @@
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F89" t="s">
         <v>42</v>
@@ -4029,10 +4070,10 @@
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F90" t="s">
         <v>42</v>
@@ -4049,10 +4090,10 @@
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F91" t="s">
         <v>42</v>
@@ -4069,10 +4110,10 @@
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F92" t="s">
         <v>42</v>
@@ -4089,10 +4130,10 @@
         <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F93" t="s">
         <v>42</v>
@@ -4109,10 +4150,10 @@
         <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F94" t="s">
         <v>42</v>
@@ -4121,7 +4162,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4129,10 +4170,10 @@
         <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="F95" t="s">
         <v>42</v>
@@ -4149,10 +4190,10 @@
         <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F96" t="s">
         <v>42</v>
@@ -4169,10 +4210,10 @@
         <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F97" t="s">
         <v>42</v>
@@ -4181,7 +4222,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4189,10 +4230,10 @@
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="F98" t="s">
         <v>42</v>
@@ -4201,7 +4242,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4209,10 +4250,10 @@
         <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="F99" t="s">
         <v>42</v>
@@ -4221,7 +4262,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4229,10 +4270,10 @@
         <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="F100" t="s">
         <v>42</v>
@@ -4241,7 +4282,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4249,13 +4290,19 @@
         <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="F101" t="s">
+        <v>42</v>
+      </c>
+      <c r="G101" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4263,10 +4310,10 @@
         <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="F102" t="s">
         <v>42</v>
@@ -4275,7 +4322,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4283,10 +4330,10 @@
         <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="F103" t="s">
         <v>42</v>
@@ -4295,7 +4342,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4303,16 +4350,10 @@
         <v>7</v>
       </c>
       <c r="D104" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F104" t="s">
-        <v>42</v>
-      </c>
-      <c r="G104" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -4323,10 +4364,10 @@
         <v>7</v>
       </c>
       <c r="D105" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="F105" t="s">
         <v>42</v>
@@ -4343,10 +4384,10 @@
         <v>7</v>
       </c>
       <c r="D106" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F106" t="s">
         <v>42</v>
@@ -4355,7 +4396,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4363,10 +4404,10 @@
         <v>7</v>
       </c>
       <c r="D107" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F107" t="s">
         <v>42</v>
@@ -4383,10 +4424,10 @@
         <v>7</v>
       </c>
       <c r="D108" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="F108" t="s">
         <v>42</v>
@@ -4395,7 +4436,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4403,10 +4444,10 @@
         <v>7</v>
       </c>
       <c r="D109" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="F109" t="s">
         <v>42</v>
@@ -4415,7 +4456,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4423,10 +4464,10 @@
         <v>7</v>
       </c>
       <c r="D110" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="F110" t="s">
         <v>42</v>
@@ -4435,7 +4476,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4443,10 +4484,10 @@
         <v>7</v>
       </c>
       <c r="D111" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>196</v>
+        <v>87</v>
       </c>
       <c r="F111" t="s">
         <v>42</v>
@@ -4455,7 +4496,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4463,10 +4504,10 @@
         <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="F112" t="s">
         <v>42</v>
@@ -4483,10 +4524,10 @@
         <v>7</v>
       </c>
       <c r="D113" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="F113" t="s">
         <v>42</v>
@@ -4495,7 +4536,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -4503,10 +4544,10 @@
         <v>7</v>
       </c>
       <c r="D114" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F114" t="s">
         <v>42</v>
@@ -4515,7 +4556,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -4523,10 +4564,10 @@
         <v>7</v>
       </c>
       <c r="D115" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="F115" t="s">
         <v>42</v>
@@ -4535,7 +4576,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -4543,10 +4584,10 @@
         <v>7</v>
       </c>
       <c r="D116" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="F116" t="s">
         <v>42</v>
@@ -4555,7 +4596,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -4563,10 +4604,10 @@
         <v>7</v>
       </c>
       <c r="D117" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>245</v>
+        <v>133</v>
       </c>
       <c r="F117" t="s">
         <v>42</v>
@@ -4575,7 +4616,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -4583,10 +4624,10 @@
         <v>7</v>
       </c>
       <c r="D118" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="F118" t="s">
         <v>42</v>
@@ -4603,10 +4644,10 @@
         <v>7</v>
       </c>
       <c r="D119" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>243</v>
+        <v>100</v>
       </c>
       <c r="F119" t="s">
         <v>42</v>
@@ -4623,10 +4664,10 @@
         <v>7</v>
       </c>
       <c r="D120" t="s">
-        <v>108</v>
+        <v>239</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>107</v>
+        <v>246</v>
       </c>
       <c r="F120" t="s">
         <v>42</v>
@@ -4635,18 +4676,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="D121" t="s">
-        <v>68</v>
+        <v>240</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F121" t="s">
         <v>42</v>
@@ -4660,18 +4701,98 @@
         <v>120</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" t="s">
+        <v>242</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F122" t="s">
+        <v>42</v>
+      </c>
+      <c r="G122" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123" t="s">
+        <v>241</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F123" t="s">
+        <v>42</v>
+      </c>
+      <c r="G123" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" t="s">
+        <v>108</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F124" t="s">
+        <v>42</v>
+      </c>
+      <c r="G124" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D125" t="s">
+        <v>68</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F125" t="s">
+        <v>42</v>
+      </c>
+      <c r="G125" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D126" t="s">
         <v>116</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E126" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F122" t="s">
-        <v>42</v>
-      </c>
-      <c r="G122" t="s">
+      <c r="F126" t="s">
+        <v>42</v>
+      </c>
+      <c r="G126" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Assets/06.Table/ChoboTable.xlsx
+++ b/Assets/06.Table/ChoboTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CCC9B9-FBB2-4110-BB16-297ADF66898A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7845D547-464C-4D05-8D96-49D5E290BB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChoboTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="269">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1214,6 +1214,50 @@
     <t>혈자리 전수권은 하루에 2개씩 획득하실 수 있습니다.
 소탕 시 혈자리 전수 단계에 따라
 혈의 기운을 획득하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 정수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간의 틈 콘텐츠에서 레벨을 올릴 때 사용합니다.
+소탕 시 자동으로 장비가 분해되어 획득 가능합니다.
+시즌 변경 시 재화 보유량이 초기화 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간의 틈(메뉴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간의 틈에서는 모든 유저가 동일한 조건을 가지고 있습니다.
+던전 클리어 시 보상을 획득할 수 있습니다.
+높은 단계의 던전 소탕 시 더 좋은 보상을 획득할 수 있습니다.
+시즌 변경 시 진행한 던전 단계에 따라 랭킹이 정산됩니다.
+매달 1일은 시즌 준비기간이며 2일부터 신규 시즌이 시작됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간의 틈 콘텐츠에서 소탕하는데 사용할 수 있습니다.
+소탕 시 장비와 재화를 획득할 수 있습니다.
+시즌 변경 시 재화 보유량이 초기화 됩니다.
+매일 5개씩 획득할 수 있으며
+패스 구매 시 추가적으로 획득할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간의 틈 콘텐츠에서 시간 베기를 획득하는데 사용할 수 있습니다.
+소탕권 시 재화를 획득할 수 있습니다.
+시즌 변경 시 초기화 되지 않습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1621,11 +1665,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:GE126"/>
+  <dimension ref="A1:GE130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3331,24 +3375,21 @@
         <v>255</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>15001</v>
       </c>
       <c r="D53" t="s">
-        <v>142</v>
+        <v>261</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F53" t="s">
-        <v>42</v>
-      </c>
-      <c r="G53" t="s">
-        <v>42</v>
+        <v>263</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -3356,36 +3397,36 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>15000</v>
       </c>
       <c r="D54" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F54" t="s">
-        <v>42</v>
-      </c>
-      <c r="G54" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>15002</v>
       </c>
       <c r="D55" t="s">
-        <v>203</v>
+        <v>264</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3393,10 +3434,10 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="F56" t="s">
         <v>42</v>
@@ -3413,10 +3454,10 @@
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>113</v>
+        <v>219</v>
       </c>
       <c r="F57" t="s">
         <v>42</v>
@@ -3433,13 +3474,13 @@
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3447,10 +3488,10 @@
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>197</v>
+        <v>122</v>
       </c>
       <c r="F59" t="s">
         <v>42</v>
@@ -3467,10 +3508,10 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>216</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
         <v>42</v>
@@ -3479,7 +3520,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3487,19 +3528,13 @@
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>141</v>
+        <v>213</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F61" t="s">
-        <v>42</v>
-      </c>
-      <c r="G61" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="99" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3507,10 +3542,10 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="F62" t="s">
         <v>42</v>
@@ -3527,10 +3562,10 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="F63" t="s">
         <v>42</v>
@@ -3547,10 +3582,10 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>223</v>
+        <v>93</v>
       </c>
       <c r="F64" t="s">
         <v>42</v>
@@ -3559,7 +3594,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3567,10 +3602,10 @@
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F65" t="s">
         <v>42</v>
@@ -3587,10 +3622,10 @@
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="F66" t="s">
         <v>42</v>
@@ -3607,10 +3642,10 @@
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>85</v>
+        <v>222</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="F67" t="s">
         <v>42</v>
@@ -3619,7 +3654,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3627,10 +3662,10 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="F68" t="s">
         <v>42</v>
@@ -3639,7 +3674,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3647,10 +3682,10 @@
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>224</v>
+        <v>143</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>225</v>
+        <v>144</v>
       </c>
       <c r="F69" t="s">
         <v>42</v>
@@ -3659,7 +3694,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3667,10 +3702,10 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>248</v>
+        <v>85</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>249</v>
+        <v>103</v>
       </c>
       <c r="F70" t="s">
         <v>42</v>
@@ -3679,7 +3714,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3687,10 +3722,10 @@
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F71" t="s">
         <v>42</v>
@@ -3699,7 +3734,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3707,10 +3742,10 @@
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>145</v>
+        <v>224</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>57</v>
+        <v>225</v>
       </c>
       <c r="F72" t="s">
         <v>42</v>
@@ -3719,7 +3754,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3727,10 +3762,10 @@
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>82</v>
+        <v>249</v>
       </c>
       <c r="F73" t="s">
         <v>42</v>
@@ -3739,7 +3774,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3747,10 +3782,10 @@
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>80</v>
+        <v>266</v>
       </c>
       <c r="F74" t="s">
         <v>42</v>
@@ -3759,7 +3794,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3767,10 +3802,10 @@
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>63</v>
+        <v>247</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>58</v>
+        <v>217</v>
       </c>
       <c r="F75" t="s">
         <v>42</v>
@@ -3779,7 +3814,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3787,10 +3822,10 @@
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="F76" t="s">
         <v>42</v>
@@ -3799,7 +3834,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3807,10 +3842,10 @@
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F77" t="s">
         <v>42</v>
@@ -3819,21 +3854,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C78" s="2">
-        <v>0</v>
-      </c>
       <c r="D78" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F78" t="s">
         <v>42</v>
@@ -3842,7 +3874,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3850,10 +3882,10 @@
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F79" t="s">
         <v>42</v>
@@ -3862,7 +3894,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3870,10 +3902,10 @@
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F80" t="s">
         <v>42</v>
@@ -3882,7 +3914,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3890,10 +3922,10 @@
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F81" t="s">
         <v>42</v>
@@ -3902,18 +3934,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C82" s="2">
+        <v>0</v>
+      </c>
       <c r="D82" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="F82" t="s">
         <v>42</v>
@@ -3922,7 +3957,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3930,10 +3965,10 @@
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F83" t="s">
         <v>42</v>
@@ -3950,10 +3985,10 @@
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="F84" t="s">
         <v>42</v>
@@ -3962,7 +3997,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3970,10 +4005,10 @@
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="F85" t="s">
         <v>42</v>
@@ -3982,7 +4017,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3990,10 +4025,10 @@
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F86" t="s">
         <v>42</v>
@@ -4002,7 +4037,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4010,10 +4045,10 @@
         <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
         <v>42</v>
@@ -4022,7 +4057,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4030,10 +4065,10 @@
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="F88" t="s">
         <v>42</v>
@@ -4042,7 +4077,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4050,10 +4085,10 @@
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
         <v>42</v>
@@ -4062,7 +4097,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4070,10 +4105,10 @@
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F90" t="s">
         <v>42</v>
@@ -4082,7 +4117,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4090,10 +4125,10 @@
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F91" t="s">
         <v>42</v>
@@ -4110,10 +4145,10 @@
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F92" t="s">
         <v>42</v>
@@ -4122,7 +4157,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4130,10 +4165,10 @@
         <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F93" t="s">
         <v>42</v>
@@ -4150,10 +4185,10 @@
         <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F94" t="s">
         <v>42</v>
@@ -4170,10 +4205,10 @@
         <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F95" t="s">
         <v>42</v>
@@ -4190,10 +4225,10 @@
         <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F96" t="s">
         <v>42</v>
@@ -4210,10 +4245,10 @@
         <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F97" t="s">
         <v>42</v>
@@ -4222,7 +4257,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4230,10 +4265,10 @@
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>157</v>
+        <v>62</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="F98" t="s">
         <v>42</v>
@@ -4250,10 +4285,10 @@
         <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F99" t="s">
         <v>42</v>
@@ -4270,10 +4305,10 @@
         <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F100" t="s">
         <v>42</v>
@@ -4282,7 +4317,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4290,10 +4325,10 @@
         <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F101" t="s">
         <v>42</v>
@@ -4310,10 +4345,10 @@
         <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="F102" t="s">
         <v>42</v>
@@ -4322,7 +4357,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4330,10 +4365,10 @@
         <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="F103" t="s">
         <v>42</v>
@@ -4350,13 +4385,19 @@
         <v>7</v>
       </c>
       <c r="D104" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="F104" t="s">
+        <v>42</v>
+      </c>
+      <c r="G104" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4364,10 +4405,10 @@
         <v>7</v>
       </c>
       <c r="D105" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="F105" t="s">
         <v>42</v>
@@ -4376,7 +4417,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4384,10 +4425,10 @@
         <v>7</v>
       </c>
       <c r="D106" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F106" t="s">
         <v>42</v>
@@ -4396,7 +4437,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4404,10 +4445,10 @@
         <v>7</v>
       </c>
       <c r="D107" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="F107" t="s">
         <v>42</v>
@@ -4424,16 +4465,10 @@
         <v>7</v>
       </c>
       <c r="D108" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F108" t="s">
-        <v>42</v>
-      </c>
-      <c r="G108" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -4444,10 +4479,10 @@
         <v>7</v>
       </c>
       <c r="D109" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="F109" t="s">
         <v>42</v>
@@ -4464,10 +4499,10 @@
         <v>7</v>
       </c>
       <c r="D110" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="F110" t="s">
         <v>42</v>
@@ -4476,7 +4511,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4484,10 +4519,10 @@
         <v>7</v>
       </c>
       <c r="D111" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F111" t="s">
         <v>42</v>
@@ -4496,7 +4531,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4504,10 +4539,10 @@
         <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="F112" t="s">
         <v>42</v>
@@ -4516,7 +4551,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -4524,10 +4559,10 @@
         <v>7</v>
       </c>
       <c r="D113" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F113" t="s">
         <v>42</v>
@@ -4536,7 +4571,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -4544,10 +4579,10 @@
         <v>7</v>
       </c>
       <c r="D114" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="F114" t="s">
         <v>42</v>
@@ -4556,7 +4591,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -4564,10 +4599,10 @@
         <v>7</v>
       </c>
       <c r="D115" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="F115" t="s">
         <v>42</v>
@@ -4584,10 +4619,10 @@
         <v>7</v>
       </c>
       <c r="D116" t="s">
-        <v>253</v>
+        <v>182</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>259</v>
+        <v>183</v>
       </c>
       <c r="F116" t="s">
         <v>42</v>
@@ -4604,10 +4639,10 @@
         <v>7</v>
       </c>
       <c r="D117" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="F117" t="s">
         <v>42</v>
@@ -4616,7 +4651,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -4624,10 +4659,10 @@
         <v>7</v>
       </c>
       <c r="D118" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F118" t="s">
         <v>42</v>
@@ -4636,7 +4671,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -4644,10 +4679,10 @@
         <v>7</v>
       </c>
       <c r="D119" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="F119" t="s">
         <v>42</v>
@@ -4656,7 +4691,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -4664,10 +4699,10 @@
         <v>7</v>
       </c>
       <c r="D120" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="F120" t="s">
         <v>42</v>
@@ -4676,7 +4711,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -4684,10 +4719,10 @@
         <v>7</v>
       </c>
       <c r="D121" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>245</v>
+        <v>133</v>
       </c>
       <c r="F121" t="s">
         <v>42</v>
@@ -4696,7 +4731,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -4704,10 +4739,10 @@
         <v>7</v>
       </c>
       <c r="D122" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="F122" t="s">
         <v>42</v>
@@ -4724,10 +4759,10 @@
         <v>7</v>
       </c>
       <c r="D123" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>243</v>
+        <v>100</v>
       </c>
       <c r="F123" t="s">
         <v>42</v>
@@ -4744,10 +4779,10 @@
         <v>7</v>
       </c>
       <c r="D124" t="s">
-        <v>108</v>
+        <v>239</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>107</v>
+        <v>246</v>
       </c>
       <c r="F124" t="s">
         <v>42</v>
@@ -4756,18 +4791,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>68</v>
+        <v>240</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F125" t="s">
         <v>42</v>
@@ -4781,18 +4816,98 @@
         <v>124</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" t="s">
+        <v>242</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F126" t="s">
+        <v>42</v>
+      </c>
+      <c r="G126" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127" t="s">
+        <v>241</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F127" t="s">
+        <v>42</v>
+      </c>
+      <c r="G127" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128" t="s">
+        <v>108</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F128" t="s">
+        <v>42</v>
+      </c>
+      <c r="G128" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D129" t="s">
+        <v>68</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F129" t="s">
+        <v>42</v>
+      </c>
+      <c r="G129" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D130" t="s">
         <v>116</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="E130" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F126" t="s">
-        <v>42</v>
-      </c>
-      <c r="G126" t="s">
+      <c r="F130" t="s">
+        <v>42</v>
+      </c>
+      <c r="G130" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Assets/06.Table/ChoboTable.xlsx
+++ b/Assets/06.Table/ChoboTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7845D547-464C-4D05-8D96-49D5E290BB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BF22DF-6DEB-4FC3-9462-949CCE8BAB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChoboTable" sheetId="1" r:id="rId1"/>
@@ -1174,11 +1174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
-"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설", "적", "고", "화", "명", "월", "후", "단", "절", "격", "창", "공", "채", "피", "동", "멸", "향", "증", "쾌", "우", "팽", "관", "한", "혈", "연", "난", "군"……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>초월광산(요괴사냥-한계돌파)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1258,6 +1253,11 @@
     <t>시간의 틈 콘텐츠에서 시간 베기를 획득하는데 사용할 수 있습니다.
 소탕권 시 재화를 획득할 수 있습니다.
 시즌 변경 시 초기화 되지 않습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
+"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위", "설", "적", "고", "화", "명", "월", "후", "단", "절", "격", "창", "공", "채", "피", "동", "멸", "향", "증", "쾌", "우", "팽", "관", "한", "혈", "연", "난", "군", "결", "맥"……</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1668,8 +1668,8 @@
   <dimension ref="A1:GE130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3300,10 +3300,10 @@
         <v>9065</v>
       </c>
       <c r="D49" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F49" t="s">
         <v>42</v>
@@ -3323,10 +3323,10 @@
         <v>9066</v>
       </c>
       <c r="D50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F50" t="s">
         <v>42</v>
@@ -3369,10 +3369,10 @@
         <v>9068</v>
       </c>
       <c r="D52" t="s">
+        <v>253</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -3386,10 +3386,10 @@
         <v>15001</v>
       </c>
       <c r="D53" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -3403,10 +3403,10 @@
         <v>15000</v>
       </c>
       <c r="D54" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -3420,10 +3420,10 @@
         <v>15002</v>
       </c>
       <c r="D55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -3782,10 +3782,10 @@
         <v>7</v>
       </c>
       <c r="D74" t="s">
+        <v>264</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="F74" t="s">
         <v>42</v>
@@ -4699,10 +4699,10 @@
         <v>7</v>
       </c>
       <c r="D120" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F120" t="s">
         <v>42</v>
@@ -4882,7 +4882,7 @@
         <v>68</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="F129" t="s">
         <v>42</v>
